--- a/6Timetable/data/20210816/●３会場一般予約枠１６歳以上.xlsx
+++ b/6Timetable/data/20210816/●３会場一般予約枠１６歳以上.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -11,7 +11,7 @@
     <sheet name="稼働日" sheetId="11" r:id="rId2"/>
     <sheet name="ダミー稼働日" sheetId="12" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029" concurrentCalc="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,28 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="43">
-  <si>
-    <t>箕面市瀬川３丁目２－５</t>
-  </si>
-  <si>
-    <r>
-      <t>7/14～8/01_東生涯学習センター</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>(60歳)</t>
-    </r>
-  </si>
-  <si>
-    <t>開始時</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="37" uniqueCount="37">
   <si>
     <t>デフォルト終了時刻</t>
     <rPh sb="5" eb="7">
@@ -54,7 +33,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>箕面市粟生間谷西３丁目１－３</t>
+    <t>開始時</t>
+  </si>
+  <si>
+    <t>箕面市瀬川３丁目２－５</t>
   </si>
   <si>
     <t>デフォルト開始時刻</t>
@@ -62,6 +44,9 @@
       <t>カイシジコク</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>箕面市粟生間谷西３丁目１－３</t>
   </si>
   <si>
     <t>予約枠あたりの接種者数</t>
@@ -87,6 +72,20 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>デフォルト毎時間枠の時間</t>
+  </si>
+  <si>
+    <t>昼休み終了時間
+※インポート時紐付け不要</t>
+    <rPh sb="0" eb="2">
+      <t>ヒルヤス</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>接種（予約）終了時間
 ※インポート時紐付け不要</t>
     <rPh sb="0" eb="2">
@@ -101,24 +100,13 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>デフォルト毎時間枠の時間</t>
+    <t>8/25～9/12_東生涯学習センター</t>
   </si>
   <si>
-    <t>昼休み終了時間
-※インポート時紐付け不要</t>
-    <rPh sb="0" eb="2">
-      <t>ヒルヤス</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+    <t>昼休み開始</t>
   </si>
   <si>
     <t>Webサイト</t>
-  </si>
-  <si>
-    <t>昼休み開始</t>
   </si>
   <si>
     <t>会場: 電話</t>
@@ -131,26 +119,14 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t>8/04～8/22_東生涯学習センター</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>(60歳)</t>
-    </r>
-  </si>
-  <si>
     <t>住所</t>
     <rPh sb="0" eb="2">
       <t>ジュウショ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>病院ID</t>
   </si>
   <si>
     <t>接種日
@@ -171,9 +147,6 @@
       <t>フヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>病院ID</t>
   </si>
   <si>
     <t>接種（予約）開始時間
@@ -205,14 +178,17 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>8/25～9/12_総合保健福祉センター</t>
+  </si>
+  <si>
+    <t>有効</t>
+  </si>
+  <si>
     <t>外部ID</t>
     <rPh sb="0" eb="2">
       <t>ガイブ</t>
     </rPh>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>有効</t>
   </si>
   <si>
     <r>
@@ -223,8 +199,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
       </rPr>
       <t>o</t>
     </r>
@@ -237,21 +211,6 @@
   </si>
   <si>
     <t>予約終了までの日数</t>
-  </si>
-  <si>
-    <r>
-      <t>8/04～8/22_西南生涯学習センター</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>(60歳)</t>
-    </r>
   </si>
   <si>
     <t>予約変更までの日数</t>
@@ -267,43 +226,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>7/14～8/01_総合保健福祉センター(60歳)</t>
-    <rPh sb="23" eb="24">
-      <t>サイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>7/14～8/01_西南生涯学習センター</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>(60歳)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>8/04～8/22_総合保健福祉センター</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>(60歳)</t>
-    </r>
-  </si>
-  <si>
     <r>
       <t>8/</t>
     </r>
@@ -312,62 +234,9 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <scheme val="minor"/>
       </rPr>
-      <t>25</t>
+      <t>25～9/12_総合保健福祉センター</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>～</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_総合保健福祉センター</t>
-    </r>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -375,44 +244,9 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
       </rPr>
-      <t>8/25</t>
+      <t>8/25～9/12_東生涯学習センター</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>～</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9/12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_東生涯学習センター</t>
-    </r>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -420,50 +254,9 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
       </rPr>
-      <t>8/25</t>
+      <t>8/25～9/12_西南生涯学習センター</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>～</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9/12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_西南生涯学習センター</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>8/25～9/12_総合保健福祉センター</t>
-  </si>
-  <si>
-    <t>8/25～9/12_東生涯学習センター</t>
   </si>
   <si>
     <t>8/25～9/12_西南生涯学習センター</t>
@@ -472,13 +265,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="[&lt;=99999999]####\-####;\(00\)\ ####\-####"/>
-    <numFmt numFmtId="177" formatCode="h:mm;@"/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="178" formatCode="h:mm;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,6 +288,7 @@
     </font>
     <font>
       <sz val="6"/>
+      <color auto="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <scheme val="minor"/>
@@ -507,21 +301,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -532,7 +311,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,43 +323,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,7 +548,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -786,13 +565,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -841,30 +620,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="8" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="10" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="10" borderId="8" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -880,13 +635,46 @@
     <xf numFmtId="177" fontId="1" fillId="8" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="1" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="1" fillId="10" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="1" fillId="10" borderId="8" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="8" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="10" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="10" borderId="8" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1">
@@ -904,60 +692,20 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="8" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="10" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="10" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="10" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="10" borderId="8" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 3" xfId="2"/>
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+      <x14:slicerStyles xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+      <x15:timelineStyles xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1251,14 +999,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
@@ -1270,44 +1018,44 @@
     <col min="9" max="10" width="26.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="48" t="s">
-        <v>37</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
@@ -1321,20 +1069,20 @@
         <v>0.40972222222222232</v>
       </c>
       <c r="H2" s="8">
-        <v>0.69444444444444453</v>
+        <v>0.680555555555555</v>
       </c>
       <c r="I2" s="9" t="str">
-        <f t="shared" ref="I2:I4" si="0">TEXT(F2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(G2,"hh:MM")&amp;":00.000+9"</f>
+        <f>TEXT(F2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(G2,"hh:MM")&amp;":00.000+9"</f>
         <v>2021-08-25T09:50:00.000+9</v>
       </c>
       <c r="J2" s="9" t="str">
-        <f t="shared" ref="J2:J4" si="1">TEXT(F2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(H2,"hh:MM")&amp;":00.000+9"</f>
-        <v>2021-08-25T16:40:00.000+9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="49" t="s">
-        <v>38</v>
+        <f>TEXT(F2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(H2,"hh:MM")&amp;":00.000+9"</f>
+        <v>2021-08-25T16:20:00.000+9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1">
+      <c r="A3" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -1351,23 +1099,23 @@
         <v>0.40972222222222232</v>
       </c>
       <c r="H3" s="8">
-        <v>0.69444444444444453</v>
+        <v>0.680555555555555</v>
       </c>
       <c r="I3" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(F3,"yyyy-mm-dd")&amp;"T"&amp;TEXT(G3,"hh:MM")&amp;":00.000+9"</f>
         <v>2021-08-25T09:50:00.000+9</v>
       </c>
       <c r="J3" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>2021-08-25T16:40:00.000+9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="49" t="s">
-        <v>39</v>
+        <f>TEXT(F3,"yyyy-mm-dd")&amp;"T"&amp;TEXT(H3,"hh:MM")&amp;":00.000+9"</f>
+        <v>2021-08-25T16:20:00.000+9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1">
+      <c r="A4" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
@@ -1381,34 +1129,34 @@
         <v>0.40972222222222232</v>
       </c>
       <c r="H4" s="8">
-        <v>0.69444444444444453</v>
+        <v>0.680555555555555</v>
       </c>
       <c r="I4" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(F4,"yyyy-mm-dd")&amp;"T"&amp;TEXT(G4,"hh:MM")&amp;":00.000+9"</f>
         <v>2021-08-25T09:50:00.000+9</v>
       </c>
       <c r="J4" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>2021-08-25T16:40:00.000+9</v>
+        <f>TEXT(F4,"yyyy-mm-dd")&amp;"T"&amp;TEXT(H4,"hh:MM")&amp;":00.000+9"</f>
+        <v>2021-08-25T16:20:00.000+9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:T73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50:O73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="10" bestFit="1" customWidth="1"/>
@@ -1423,39 +1171,39 @@
     <col min="17" max="20" width="26.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1" s="26" t="s">
         <v>19</v>
       </c>
       <c r="F1" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="J1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>23</v>
-      </c>
       <c r="K1" s="26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L1" s="26" t="s">
         <v>27</v>
@@ -1467,25 +1215,25 @@
         <v>29</v>
       </c>
       <c r="O1" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:20" s="1" customFormat="1">
       <c r="A2" s="12">
         <v>6</v>
       </c>
@@ -1493,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D2" s="27" t="b">
         <v>1</v>
@@ -1527,28 +1275,28 @@
       <c r="O2" s="18">
         <v>3</v>
       </c>
-      <c r="P2" s="40" t="str">
-        <f t="shared" ref="P2:P19" si="0">C2&amp;"/"&amp;TEXT(E2,"yyyy-mm-dd")</f>
+      <c r="P2" s="43" t="str">
+        <f t="shared" ref="P2:P65" si="0">C2&amp;"/"&amp;TEXT(E2,"yyyy-mm-dd")</f>
         <v>8/25～9/12_総合保健福祉センター/2021-08-25</v>
       </c>
-      <c r="Q2" s="43" t="str">
-        <f t="shared" ref="Q2:Q19" si="1">TEXT(E2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F2,"hh:MM")&amp;":00.000+9"</f>
+      <c r="Q2" s="46" t="str">
+        <f t="shared" ref="Q2:Q65" si="1">TEXT(E2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F2,"hh:MM")&amp;":00.000+9"</f>
         <v>2021-08-25T13:20:00.000+9</v>
       </c>
-      <c r="R2" s="43" t="str">
-        <f t="shared" ref="R2:R19" si="2">TEXT(E2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(G2,"hh:MM")&amp;":00.000+9"</f>
+      <c r="R2" s="46" t="str">
+        <f t="shared" ref="R2:R65" si="2">TEXT(E2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(G2,"hh:MM")&amp;":00.000+9"</f>
         <v>2021-08-25T14:20:00.000+9</v>
       </c>
-      <c r="S2" s="43" t="str">
-        <f t="shared" ref="S2:S19" si="3">TEXT(E2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(H2,"hh:MM")&amp;":00.000+9"</f>
+      <c r="S2" s="46" t="str">
+        <f t="shared" ref="S2:S65" si="3">TEXT(E2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(H2,"hh:MM")&amp;":00.000+9"</f>
         <v>2021-08-25T00:00:00.000+9</v>
       </c>
-      <c r="T2" s="45" t="str">
-        <f t="shared" ref="T2:T19" si="4">TEXT(E2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(I2,"hh:MM")&amp;":00.000+9"</f>
+      <c r="T2" s="48" t="str">
+        <f t="shared" ref="T2:T65" si="4">TEXT(E2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(I2,"hh:MM")&amp;":00.000+9"</f>
         <v>2021-08-25T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" s="1" customFormat="1">
       <c r="A3" s="13">
         <v>6</v>
       </c>
@@ -1556,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D3" s="28" t="b">
         <v>1</v>
@@ -1590,7 +1338,7 @@
       <c r="O3" s="19">
         <v>3</v>
       </c>
-      <c r="P3" s="41" t="str">
+      <c r="P3" s="44" t="str">
         <f t="shared" si="0"/>
         <v>8/25～9/12_総合保健福祉センター/2021-08-26</v>
       </c>
@@ -1606,12 +1354,12 @@
         <f t="shared" si="3"/>
         <v>2021-08-26T00:00:00.000+9</v>
       </c>
-      <c r="T3" s="46" t="str">
+      <c r="T3" s="49" t="str">
         <f t="shared" si="4"/>
         <v>2021-08-26T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" s="1" customFormat="1">
       <c r="A4" s="13">
         <v>6</v>
       </c>
@@ -1619,7 +1367,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D4" s="28" t="b">
         <v>1</v>
@@ -1653,7 +1401,7 @@
       <c r="O4" s="19">
         <v>3</v>
       </c>
-      <c r="P4" s="41" t="str">
+      <c r="P4" s="44" t="str">
         <f t="shared" si="0"/>
         <v>8/25～9/12_総合保健福祉センター/2021-09-01</v>
       </c>
@@ -1669,12 +1417,12 @@
         <f t="shared" si="3"/>
         <v>2021-09-01T00:00:00.000+9</v>
       </c>
-      <c r="T4" s="46" t="str">
+      <c r="T4" s="49" t="str">
         <f t="shared" si="4"/>
         <v>2021-09-01T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" s="1" customFormat="1">
       <c r="A5" s="13">
         <v>6</v>
       </c>
@@ -1682,7 +1430,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D5" s="28" t="b">
         <v>1</v>
@@ -1696,7 +1444,7 @@
       <c r="G5" s="36">
         <v>0.59722222222222221</v>
       </c>
-      <c r="H5" s="52"/>
+      <c r="H5" s="36"/>
       <c r="I5" s="36"/>
       <c r="J5" s="19">
         <v>10</v>
@@ -1716,7 +1464,7 @@
       <c r="O5" s="19">
         <v>3</v>
       </c>
-      <c r="P5" s="41" t="str">
+      <c r="P5" s="44" t="str">
         <f t="shared" si="0"/>
         <v>8/25～9/12_総合保健福祉センター/2021-09-02</v>
       </c>
@@ -1732,12 +1480,12 @@
         <f t="shared" si="3"/>
         <v>2021-09-02T00:00:00.000+9</v>
       </c>
-      <c r="T5" s="46" t="str">
+      <c r="T5" s="49" t="str">
         <f t="shared" si="4"/>
         <v>2021-09-02T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" s="1" customFormat="1">
       <c r="A6" s="13">
         <v>6</v>
       </c>
@@ -1745,7 +1493,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D6" s="28" t="b">
         <v>1</v>
@@ -1779,7 +1527,7 @@
       <c r="O6" s="19">
         <v>3</v>
       </c>
-      <c r="P6" s="41" t="str">
+      <c r="P6" s="44" t="str">
         <f t="shared" si="0"/>
         <v>8/25～9/12_総合保健福祉センター/2021-09-08</v>
       </c>
@@ -1795,12 +1543,12 @@
         <f t="shared" si="3"/>
         <v>2021-09-08T00:00:00.000+9</v>
       </c>
-      <c r="T6" s="46" t="str">
+      <c r="T6" s="49" t="str">
         <f t="shared" si="4"/>
         <v>2021-09-08T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" s="1" customFormat="1">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -1808,7 +1556,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D7" s="28" t="b">
         <v>1</v>
@@ -1842,7 +1590,7 @@
       <c r="O7" s="19">
         <v>3</v>
       </c>
-      <c r="P7" s="41" t="str">
+      <c r="P7" s="44" t="str">
         <f t="shared" si="0"/>
         <v>8/25～9/12_総合保健福祉センター/2021-09-09</v>
       </c>
@@ -1858,12 +1606,12 @@
         <f t="shared" si="3"/>
         <v>2021-09-09T00:00:00.000+9</v>
       </c>
-      <c r="T7" s="46" t="str">
+      <c r="T7" s="49" t="str">
         <f t="shared" si="4"/>
         <v>2021-09-09T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" s="1" customFormat="1">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -1871,7 +1619,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D8" s="29" t="b">
         <v>1</v>
@@ -1905,7 +1653,7 @@
       <c r="O8" s="20">
         <v>0</v>
       </c>
-      <c r="P8" s="41" t="str">
+      <c r="P8" s="44" t="str">
         <f t="shared" si="0"/>
         <v>8/25～9/12_総合保健福祉センター/2021-09-15</v>
       </c>
@@ -1921,12 +1669,12 @@
         <f t="shared" si="3"/>
         <v>2021-09-15T00:00:00.000+9</v>
       </c>
-      <c r="T8" s="46" t="str">
+      <c r="T8" s="49" t="str">
         <f t="shared" si="4"/>
         <v>2021-09-15T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" s="1" customFormat="1">
       <c r="A9" s="13">
         <v>6</v>
       </c>
@@ -1934,7 +1682,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D9" s="29" t="b">
         <v>1</v>
@@ -1968,7 +1716,7 @@
       <c r="O9" s="20">
         <v>0</v>
       </c>
-      <c r="P9" s="41" t="str">
+      <c r="P9" s="44" t="str">
         <f t="shared" si="0"/>
         <v>8/25～9/12_総合保健福祉センター/2021-09-16</v>
       </c>
@@ -1984,12 +1732,12 @@
         <f t="shared" si="3"/>
         <v>2021-09-16T00:00:00.000+9</v>
       </c>
-      <c r="T9" s="46" t="str">
+      <c r="T9" s="49" t="str">
         <f t="shared" si="4"/>
         <v>2021-09-16T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" s="1" customFormat="1">
       <c r="A10" s="13">
         <v>6</v>
       </c>
@@ -1997,7 +1745,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D10" s="29" t="b">
         <v>1</v>
@@ -2031,7 +1779,7 @@
       <c r="O10" s="20">
         <v>0</v>
       </c>
-      <c r="P10" s="41" t="str">
+      <c r="P10" s="44" t="str">
         <f t="shared" si="0"/>
         <v>8/25～9/12_総合保健福祉センター/2021-09-22</v>
       </c>
@@ -2047,12 +1795,12 @@
         <f t="shared" si="3"/>
         <v>2021-09-22T00:00:00.000+9</v>
       </c>
-      <c r="T10" s="46" t="str">
+      <c r="T10" s="49" t="str">
         <f t="shared" si="4"/>
         <v>2021-09-22T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" s="1" customFormat="1">
       <c r="A11" s="13">
         <v>6</v>
       </c>
@@ -2060,7 +1808,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D11" s="29" t="b">
         <v>1</v>
@@ -2074,7 +1822,7 @@
       <c r="G11" s="37">
         <v>0.59722222222222221</v>
       </c>
-      <c r="H11" s="55"/>
+      <c r="H11" s="37"/>
       <c r="I11" s="37"/>
       <c r="J11" s="20">
         <v>10</v>
@@ -2094,7 +1842,7 @@
       <c r="O11" s="20">
         <v>0</v>
       </c>
-      <c r="P11" s="41" t="str">
+      <c r="P11" s="44" t="str">
         <f t="shared" si="0"/>
         <v>8/25～9/12_総合保健福祉センター/2021-09-23</v>
       </c>
@@ -2110,12 +1858,12 @@
         <f t="shared" si="3"/>
         <v>2021-09-23T00:00:00.000+9</v>
       </c>
-      <c r="T11" s="46" t="str">
+      <c r="T11" s="49" t="str">
         <f t="shared" si="4"/>
         <v>2021-09-23T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" s="1" customFormat="1">
       <c r="A12" s="13">
         <v>6</v>
       </c>
@@ -2123,7 +1871,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D12" s="29" t="b">
         <v>1</v>
@@ -2157,7 +1905,7 @@
       <c r="O12" s="20">
         <v>0</v>
       </c>
-      <c r="P12" s="41" t="str">
+      <c r="P12" s="44" t="str">
         <f t="shared" si="0"/>
         <v>8/25～9/12_総合保健福祉センター/2021-09-29</v>
       </c>
@@ -2173,12 +1921,12 @@
         <f t="shared" si="3"/>
         <v>2021-09-29T00:00:00.000+9</v>
       </c>
-      <c r="T12" s="46" t="str">
+      <c r="T12" s="49" t="str">
         <f t="shared" si="4"/>
         <v>2021-09-29T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" s="1" customFormat="1">
       <c r="A13" s="13">
         <v>6</v>
       </c>
@@ -2186,7 +1934,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D13" s="29" t="b">
         <v>1</v>
@@ -2220,7 +1968,7 @@
       <c r="O13" s="20">
         <v>0</v>
       </c>
-      <c r="P13" s="41" t="str">
+      <c r="P13" s="44" t="str">
         <f t="shared" si="0"/>
         <v>8/25～9/12_総合保健福祉センター/2021-09-30</v>
       </c>
@@ -2236,12 +1984,12 @@
         <f t="shared" si="3"/>
         <v>2021-09-30T00:00:00.000+9</v>
       </c>
-      <c r="T13" s="46" t="str">
+      <c r="T13" s="49" t="str">
         <f t="shared" si="4"/>
         <v>2021-09-30T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" s="1" customFormat="1">
       <c r="A14" s="13">
         <v>6</v>
       </c>
@@ -2249,7 +1997,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D14" s="30" t="b">
         <v>1</v>
@@ -2257,7 +2005,7 @@
       <c r="E14" s="30">
         <v>44436</v>
       </c>
-      <c r="F14" s="60">
+      <c r="F14" s="38">
         <v>0.55555555555555602</v>
       </c>
       <c r="G14" s="38">
@@ -2283,7 +2031,7 @@
       <c r="O14" s="21">
         <v>3</v>
       </c>
-      <c r="P14" s="41" t="str">
+      <c r="P14" s="44" t="str">
         <f t="shared" si="0"/>
         <v>8/25～9/12_総合保健福祉センター/2021-08-28</v>
       </c>
@@ -2299,12 +2047,12 @@
         <f t="shared" si="3"/>
         <v>2021-08-28T00:00:00.000+9</v>
       </c>
-      <c r="T14" s="46" t="str">
+      <c r="T14" s="49" t="str">
         <f t="shared" si="4"/>
         <v>2021-08-28T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" s="1" customFormat="1">
       <c r="A15" s="13">
         <v>6</v>
       </c>
@@ -2312,7 +2060,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D15" s="30" t="b">
         <v>1</v>
@@ -2320,14 +2068,14 @@
       <c r="E15" s="30">
         <v>44443</v>
       </c>
-      <c r="F15" s="60">
+      <c r="F15" s="38">
         <v>0.55555555555555602</v>
       </c>
-      <c r="G15" s="60">
+      <c r="G15" s="38">
         <v>0.68055555555555547</v>
       </c>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
       <c r="J15" s="21">
         <v>10</v>
       </c>
@@ -2346,7 +2094,7 @@
       <c r="O15" s="21">
         <v>3</v>
       </c>
-      <c r="P15" s="41" t="str">
+      <c r="P15" s="44" t="str">
         <f t="shared" si="0"/>
         <v>8/25～9/12_総合保健福祉センター/2021-09-04</v>
       </c>
@@ -2362,12 +2110,12 @@
         <f t="shared" si="3"/>
         <v>2021-09-04T00:00:00.000+9</v>
       </c>
-      <c r="T15" s="46" t="str">
+      <c r="T15" s="49" t="str">
         <f t="shared" si="4"/>
         <v>2021-09-04T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" s="1" customFormat="1">
       <c r="A16" s="13">
         <v>6</v>
       </c>
@@ -2375,7 +2123,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D16" s="30" t="b">
         <v>1</v>
@@ -2383,7 +2131,7 @@
       <c r="E16" s="30">
         <v>44450</v>
       </c>
-      <c r="F16" s="60">
+      <c r="F16" s="38">
         <v>0.55555555555555602</v>
       </c>
       <c r="G16" s="38">
@@ -2409,7 +2157,7 @@
       <c r="O16" s="21">
         <v>3</v>
       </c>
-      <c r="P16" s="41" t="str">
+      <c r="P16" s="44" t="str">
         <f t="shared" si="0"/>
         <v>8/25～9/12_総合保健福祉センター/2021-09-11</v>
       </c>
@@ -2425,12 +2173,12 @@
         <f t="shared" si="3"/>
         <v>2021-09-11T00:00:00.000+9</v>
       </c>
-      <c r="T16" s="46" t="str">
+      <c r="T16" s="49" t="str">
         <f t="shared" si="4"/>
         <v>2021-09-11T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" s="1" customFormat="1">
       <c r="A17" s="13">
         <v>6</v>
       </c>
@@ -2438,7 +2186,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D17" s="31" t="b">
         <v>1</v>
@@ -2446,7 +2194,7 @@
       <c r="E17" s="31">
         <v>44457</v>
       </c>
-      <c r="F17" s="51">
+      <c r="F17" s="39">
         <v>0.55555555555555602</v>
       </c>
       <c r="G17" s="39">
@@ -2472,7 +2220,7 @@
       <c r="O17" s="22">
         <v>0</v>
       </c>
-      <c r="P17" s="41" t="str">
+      <c r="P17" s="44" t="str">
         <f t="shared" si="0"/>
         <v>8/25～9/12_総合保健福祉センター/2021-09-18</v>
       </c>
@@ -2488,12 +2236,12 @@
         <f t="shared" si="3"/>
         <v>2021-09-18T00:00:00.000+9</v>
       </c>
-      <c r="T17" s="46" t="str">
+      <c r="T17" s="49" t="str">
         <f t="shared" si="4"/>
         <v>2021-09-18T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" s="1" customFormat="1">
       <c r="A18" s="13">
         <v>6</v>
       </c>
@@ -2501,22 +2249,22 @@
         <v>17</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D18" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="E18" s="50">
+      <c r="E18" s="31">
         <v>44464</v>
       </c>
-      <c r="F18" s="51">
+      <c r="F18" s="39">
         <v>0.55555555555555602</v>
       </c>
-      <c r="G18" s="51">
+      <c r="G18" s="39">
         <v>0.68055555555555547</v>
       </c>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
       <c r="J18" s="22">
         <v>10</v>
       </c>
@@ -2535,7 +2283,7 @@
       <c r="O18" s="22">
         <v>0</v>
       </c>
-      <c r="P18" s="41" t="str">
+      <c r="P18" s="44" t="str">
         <f t="shared" si="0"/>
         <v>8/25～9/12_総合保健福祉センター/2021-09-25</v>
       </c>
@@ -2551,12 +2299,12 @@
         <f t="shared" si="3"/>
         <v>2021-09-25T00:00:00.000+9</v>
       </c>
-      <c r="T18" s="46" t="str">
+      <c r="T18" s="49" t="str">
         <f t="shared" si="4"/>
         <v>2021-09-25T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" s="1" customFormat="1">
       <c r="A19" s="13">
         <v>6</v>
       </c>
@@ -2564,7 +2312,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D19" s="31" t="b">
         <v>1</v>
@@ -2572,7 +2320,7 @@
       <c r="E19" s="31">
         <v>44471</v>
       </c>
-      <c r="F19" s="51">
+      <c r="F19" s="39">
         <v>0.55555555555555602</v>
       </c>
       <c r="G19" s="39">
@@ -2598,7 +2346,7 @@
       <c r="O19" s="22">
         <v>0</v>
       </c>
-      <c r="P19" s="41" t="str">
+      <c r="P19" s="44" t="str">
         <f t="shared" si="0"/>
         <v>8/25～9/12_総合保健福祉センター/2021-10-02</v>
       </c>
@@ -2614,12 +2362,12 @@
         <f t="shared" si="3"/>
         <v>2021-10-02T00:00:00.000+9</v>
       </c>
-      <c r="T19" s="46" t="str">
+      <c r="T19" s="49" t="str">
         <f t="shared" si="4"/>
         <v>2021-10-02T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" s="1" customFormat="1">
       <c r="A20" s="13">
         <v>6</v>
       </c>
@@ -2627,7 +2375,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D20" s="32" t="b">
         <v>1</v>
@@ -2635,16 +2383,16 @@
       <c r="E20" s="32">
         <v>44437</v>
       </c>
-      <c r="F20" s="56">
+      <c r="F20" s="40">
         <v>0.43055555555555558</v>
       </c>
-      <c r="G20" s="56">
+      <c r="G20" s="40">
         <v>0.63888888888888895</v>
       </c>
-      <c r="H20" s="56">
+      <c r="H20" s="40">
         <v>0.49305555555555558</v>
       </c>
-      <c r="I20" s="56">
+      <c r="I20" s="40">
         <v>0.57638888888888895</v>
       </c>
       <c r="J20" s="23">
@@ -2665,28 +2413,28 @@
       <c r="O20" s="23">
         <v>3</v>
       </c>
-      <c r="P20" s="41" t="str">
-        <f t="shared" ref="P20:P43" si="5">C20&amp;"/"&amp;TEXT(E20,"yyyy-mm-dd")</f>
+      <c r="P20" s="44" t="str">
+        <f t="shared" si="0"/>
         <v>8/25～9/12_総合保健福祉センター/2021-08-29</v>
       </c>
       <c r="Q20" s="9" t="str">
-        <f t="shared" ref="Q20:Q43" si="6">TEXT(E20,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F20,"hh:MM")&amp;":00.000+9"</f>
+        <f t="shared" si="1"/>
         <v>2021-08-29T10:20:00.000+9</v>
       </c>
       <c r="R20" s="9" t="str">
-        <f t="shared" ref="R20:R43" si="7">TEXT(E20,"yyyy-mm-dd")&amp;"T"&amp;TEXT(G20,"hh:MM")&amp;":00.000+9"</f>
+        <f t="shared" si="2"/>
         <v>2021-08-29T15:20:00.000+9</v>
       </c>
       <c r="S20" s="9" t="str">
-        <f t="shared" ref="S20:S43" si="8">TEXT(E20,"yyyy-mm-dd")&amp;"T"&amp;TEXT(H20,"hh:MM")&amp;":00.000+9"</f>
+        <f t="shared" si="3"/>
         <v>2021-08-29T11:50:00.000+9</v>
       </c>
-      <c r="T20" s="46" t="str">
-        <f t="shared" ref="T20:T43" si="9">TEXT(E20,"yyyy-mm-dd")&amp;"T"&amp;TEXT(I20,"hh:MM")&amp;":00.000+9"</f>
+      <c r="T20" s="49" t="str">
+        <f t="shared" si="4"/>
         <v>2021-08-29T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" s="1" customFormat="1">
       <c r="A21" s="13">
         <v>6</v>
       </c>
@@ -2694,7 +2442,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D21" s="32" t="b">
         <v>1</v>
@@ -2702,16 +2450,16 @@
       <c r="E21" s="32">
         <v>44444</v>
       </c>
-      <c r="F21" s="57">
+      <c r="F21" s="40">
         <v>0.43055555555555558</v>
       </c>
-      <c r="G21" s="57">
+      <c r="G21" s="40">
         <v>0.63888888888888895</v>
       </c>
-      <c r="H21" s="57">
+      <c r="H21" s="40">
         <v>0.49305555555555558</v>
       </c>
-      <c r="I21" s="57">
+      <c r="I21" s="40">
         <v>0.57638888888888895</v>
       </c>
       <c r="J21" s="23">
@@ -2732,28 +2480,28 @@
       <c r="O21" s="23">
         <v>3</v>
       </c>
-      <c r="P21" s="41" t="str">
-        <f t="shared" si="5"/>
+      <c r="P21" s="44" t="str">
+        <f t="shared" si="0"/>
         <v>8/25～9/12_総合保健福祉センター/2021-09-05</v>
       </c>
       <c r="Q21" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2021-09-05T10:20:00.000+9</v>
       </c>
       <c r="R21" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>2021-09-05T15:20:00.000+9</v>
       </c>
       <c r="S21" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>2021-09-05T11:50:00.000+9</v>
       </c>
-      <c r="T21" s="46" t="str">
-        <f t="shared" si="9"/>
+      <c r="T21" s="49" t="str">
+        <f t="shared" si="4"/>
         <v>2021-09-05T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" s="1" customFormat="1">
       <c r="A22" s="13">
         <v>6</v>
       </c>
@@ -2761,7 +2509,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D22" s="32" t="b">
         <v>1</v>
@@ -2769,16 +2517,16 @@
       <c r="E22" s="32">
         <v>44451</v>
       </c>
-      <c r="F22" s="56">
+      <c r="F22" s="40">
         <v>0.43055555555555558</v>
       </c>
-      <c r="G22" s="56">
+      <c r="G22" s="40">
         <v>0.63888888888888895</v>
       </c>
-      <c r="H22" s="56">
+      <c r="H22" s="40">
         <v>0.49305555555555558</v>
       </c>
-      <c r="I22" s="56">
+      <c r="I22" s="40">
         <v>0.57638888888888895</v>
       </c>
       <c r="J22" s="23">
@@ -2799,28 +2547,28 @@
       <c r="O22" s="23">
         <v>3</v>
       </c>
-      <c r="P22" s="41" t="str">
-        <f t="shared" si="5"/>
+      <c r="P22" s="44" t="str">
+        <f t="shared" si="0"/>
         <v>8/25～9/12_総合保健福祉センター/2021-09-12</v>
       </c>
       <c r="Q22" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2021-09-12T10:20:00.000+9</v>
       </c>
       <c r="R22" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>2021-09-12T15:20:00.000+9</v>
       </c>
       <c r="S22" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>2021-09-12T11:50:00.000+9</v>
       </c>
-      <c r="T22" s="46" t="str">
-        <f t="shared" si="9"/>
+      <c r="T22" s="49" t="str">
+        <f t="shared" si="4"/>
         <v>2021-09-12T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" s="1" customFormat="1">
       <c r="A23" s="13">
         <v>6</v>
       </c>
@@ -2828,7 +2576,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D23" s="33" t="b">
         <v>1</v>
@@ -2836,16 +2584,16 @@
       <c r="E23" s="33">
         <v>44458</v>
       </c>
-      <c r="F23" s="58">
+      <c r="F23" s="41">
         <v>0.43055555555555558</v>
       </c>
-      <c r="G23" s="58">
+      <c r="G23" s="41">
         <v>0.63888888888888895</v>
       </c>
-      <c r="H23" s="58">
+      <c r="H23" s="41">
         <v>0.49305555555555558</v>
       </c>
-      <c r="I23" s="58">
+      <c r="I23" s="41">
         <v>0.57638888888888895</v>
       </c>
       <c r="J23" s="24">
@@ -2866,28 +2614,28 @@
       <c r="O23" s="24">
         <v>0</v>
       </c>
-      <c r="P23" s="41" t="str">
-        <f t="shared" si="5"/>
+      <c r="P23" s="44" t="str">
+        <f t="shared" si="0"/>
         <v>8/25～9/12_総合保健福祉センター/2021-09-19</v>
       </c>
       <c r="Q23" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2021-09-19T10:20:00.000+9</v>
       </c>
       <c r="R23" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>2021-09-19T15:20:00.000+9</v>
       </c>
       <c r="S23" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>2021-09-19T11:50:00.000+9</v>
       </c>
-      <c r="T23" s="46" t="str">
-        <f t="shared" si="9"/>
+      <c r="T23" s="49" t="str">
+        <f t="shared" si="4"/>
         <v>2021-09-19T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" s="1" customFormat="1">
       <c r="A24" s="13">
         <v>6</v>
       </c>
@@ -2895,24 +2643,24 @@
         <v>23</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D24" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="E24" s="53">
+      <c r="E24" s="33">
         <v>44465</v>
       </c>
-      <c r="F24" s="54">
+      <c r="F24" s="41">
         <v>0.43055555555555558</v>
       </c>
-      <c r="G24" s="54">
+      <c r="G24" s="41">
         <v>0.63888888888888895</v>
       </c>
-      <c r="H24" s="54">
+      <c r="H24" s="41">
         <v>0.49305555555555558</v>
       </c>
-      <c r="I24" s="54">
+      <c r="I24" s="41">
         <v>0.57638888888888895</v>
       </c>
       <c r="J24" s="24">
@@ -2933,28 +2681,28 @@
       <c r="O24" s="24">
         <v>0</v>
       </c>
-      <c r="P24" s="41" t="str">
-        <f t="shared" si="5"/>
+      <c r="P24" s="44" t="str">
+        <f t="shared" si="0"/>
         <v>8/25～9/12_総合保健福祉センター/2021-09-26</v>
       </c>
       <c r="Q24" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2021-09-26T10:20:00.000+9</v>
       </c>
       <c r="R24" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>2021-09-26T15:20:00.000+9</v>
       </c>
       <c r="S24" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>2021-09-26T11:50:00.000+9</v>
       </c>
-      <c r="T24" s="46" t="str">
-        <f t="shared" si="9"/>
+      <c r="T24" s="49" t="str">
+        <f t="shared" si="4"/>
         <v>2021-09-26T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" s="1" customFormat="1" ht="14.25">
       <c r="A25" s="14">
         <v>6</v>
       </c>
@@ -2962,7 +2710,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D25" s="34" t="b">
         <v>1</v>
@@ -2970,16 +2718,16 @@
       <c r="E25" s="34">
         <v>44472</v>
       </c>
-      <c r="F25" s="59">
+      <c r="F25" s="42">
         <v>0.43055555555555558</v>
       </c>
-      <c r="G25" s="59">
+      <c r="G25" s="42">
         <v>0.63888888888888895</v>
       </c>
-      <c r="H25" s="59">
+      <c r="H25" s="42">
         <v>0.49305555555555558</v>
       </c>
-      <c r="I25" s="59">
+      <c r="I25" s="42">
         <v>0.57638888888888895</v>
       </c>
       <c r="J25" s="25">
@@ -3000,28 +2748,28 @@
       <c r="O25" s="25">
         <v>0</v>
       </c>
-      <c r="P25" s="42" t="str">
-        <f t="shared" si="5"/>
+      <c r="P25" s="45" t="str">
+        <f t="shared" si="0"/>
         <v>8/25～9/12_総合保健福祉センター/2021-10-03</v>
       </c>
-      <c r="Q25" s="44" t="str">
-        <f t="shared" si="6"/>
+      <c r="Q25" s="47" t="str">
+        <f t="shared" si="1"/>
         <v>2021-10-03T10:20:00.000+9</v>
       </c>
-      <c r="R25" s="44" t="str">
-        <f t="shared" si="7"/>
+      <c r="R25" s="47" t="str">
+        <f t="shared" si="2"/>
         <v>2021-10-03T15:20:00.000+9</v>
       </c>
-      <c r="S25" s="44" t="str">
-        <f t="shared" si="8"/>
+      <c r="S25" s="47" t="str">
+        <f t="shared" si="3"/>
         <v>2021-10-03T11:50:00.000+9</v>
       </c>
-      <c r="T25" s="47" t="str">
-        <f t="shared" si="9"/>
+      <c r="T25" s="50" t="str">
+        <f t="shared" si="4"/>
         <v>2021-10-03T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="26" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20" s="1" customFormat="1">
       <c r="A26" s="12">
         <v>6</v>
       </c>
@@ -3029,7 +2777,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D26" s="27" t="b">
         <v>1</v>
@@ -3063,28 +2811,28 @@
       <c r="O26" s="18">
         <v>3</v>
       </c>
-      <c r="P26" s="40" t="str">
-        <f t="shared" si="5"/>
+      <c r="P26" s="43" t="str">
+        <f t="shared" si="0"/>
         <v>8/25～9/12_東生涯学習センター/2021-08-25</v>
       </c>
-      <c r="Q26" s="43" t="str">
-        <f t="shared" si="6"/>
+      <c r="Q26" s="46" t="str">
+        <f t="shared" si="1"/>
         <v>2021-08-25T13:20:00.000+9</v>
       </c>
-      <c r="R26" s="43" t="str">
-        <f t="shared" si="7"/>
+      <c r="R26" s="46" t="str">
+        <f t="shared" si="2"/>
         <v>2021-08-25T14:20:00.000+9</v>
       </c>
-      <c r="S26" s="43" t="str">
-        <f t="shared" si="8"/>
+      <c r="S26" s="46" t="str">
+        <f t="shared" si="3"/>
         <v>2021-08-25T00:00:00.000+9</v>
       </c>
-      <c r="T26" s="45" t="str">
-        <f t="shared" si="9"/>
+      <c r="T26" s="48" t="str">
+        <f t="shared" si="4"/>
         <v>2021-08-25T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20" s="1" customFormat="1">
       <c r="A27" s="13">
         <v>6</v>
       </c>
@@ -3092,7 +2840,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D27" s="28" t="b">
         <v>1</v>
@@ -3126,28 +2874,28 @@
       <c r="O27" s="19">
         <v>3</v>
       </c>
-      <c r="P27" s="41" t="str">
-        <f t="shared" si="5"/>
+      <c r="P27" s="44" t="str">
+        <f t="shared" si="0"/>
         <v>8/25～9/12_東生涯学習センター/2021-08-26</v>
       </c>
       <c r="Q27" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2021-08-26T13:20:00.000+9</v>
       </c>
       <c r="R27" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>2021-08-26T14:20:00.000+9</v>
       </c>
       <c r="S27" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>2021-08-26T00:00:00.000+9</v>
       </c>
-      <c r="T27" s="46" t="str">
-        <f t="shared" si="9"/>
+      <c r="T27" s="49" t="str">
+        <f t="shared" si="4"/>
         <v>2021-08-26T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20" s="1" customFormat="1">
       <c r="A28" s="13">
         <v>6</v>
       </c>
@@ -3155,7 +2903,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D28" s="28" t="b">
         <v>1</v>
@@ -3189,28 +2937,28 @@
       <c r="O28" s="19">
         <v>3</v>
       </c>
-      <c r="P28" s="41" t="str">
-        <f t="shared" si="5"/>
+      <c r="P28" s="44" t="str">
+        <f t="shared" si="0"/>
         <v>8/25～9/12_東生涯学習センター/2021-09-01</v>
       </c>
       <c r="Q28" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2021-09-01T13:20:00.000+9</v>
       </c>
       <c r="R28" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>2021-09-01T14:20:00.000+9</v>
       </c>
       <c r="S28" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>2021-09-01T00:00:00.000+9</v>
       </c>
-      <c r="T28" s="46" t="str">
-        <f t="shared" si="9"/>
+      <c r="T28" s="49" t="str">
+        <f t="shared" si="4"/>
         <v>2021-09-01T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" s="1" customFormat="1">
       <c r="A29" s="13">
         <v>6</v>
       </c>
@@ -3218,7 +2966,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D29" s="28" t="b">
         <v>1</v>
@@ -3232,7 +2980,7 @@
       <c r="G29" s="36">
         <v>0.59722222222222221</v>
       </c>
-      <c r="H29" s="52"/>
+      <c r="H29" s="36"/>
       <c r="I29" s="36"/>
       <c r="J29" s="19">
         <v>10</v>
@@ -3252,28 +3000,28 @@
       <c r="O29" s="19">
         <v>3</v>
       </c>
-      <c r="P29" s="41" t="str">
-        <f t="shared" si="5"/>
+      <c r="P29" s="44" t="str">
+        <f t="shared" si="0"/>
         <v>8/25～9/12_東生涯学習センター/2021-09-02</v>
       </c>
       <c r="Q29" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2021-09-02T13:20:00.000+9</v>
       </c>
       <c r="R29" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>2021-09-02T14:20:00.000+9</v>
       </c>
       <c r="S29" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>2021-09-02T00:00:00.000+9</v>
       </c>
-      <c r="T29" s="46" t="str">
-        <f t="shared" si="9"/>
+      <c r="T29" s="49" t="str">
+        <f t="shared" si="4"/>
         <v>2021-09-02T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20" s="1" customFormat="1">
       <c r="A30" s="13">
         <v>6</v>
       </c>
@@ -3281,7 +3029,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D30" s="28" t="b">
         <v>1</v>
@@ -3315,28 +3063,28 @@
       <c r="O30" s="19">
         <v>3</v>
       </c>
-      <c r="P30" s="41" t="str">
-        <f t="shared" si="5"/>
+      <c r="P30" s="44" t="str">
+        <f t="shared" si="0"/>
         <v>8/25～9/12_東生涯学習センター/2021-09-08</v>
       </c>
       <c r="Q30" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2021-09-08T13:20:00.000+9</v>
       </c>
       <c r="R30" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>2021-09-08T14:20:00.000+9</v>
       </c>
       <c r="S30" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>2021-09-08T00:00:00.000+9</v>
       </c>
-      <c r="T30" s="46" t="str">
-        <f t="shared" si="9"/>
+      <c r="T30" s="49" t="str">
+        <f t="shared" si="4"/>
         <v>2021-09-08T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="31" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:20" s="1" customFormat="1">
       <c r="A31" s="13">
         <v>6</v>
       </c>
@@ -3344,7 +3092,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D31" s="28" t="b">
         <v>1</v>
@@ -3378,28 +3126,28 @@
       <c r="O31" s="19">
         <v>3</v>
       </c>
-      <c r="P31" s="41" t="str">
-        <f t="shared" si="5"/>
+      <c r="P31" s="44" t="str">
+        <f t="shared" si="0"/>
         <v>8/25～9/12_東生涯学習センター/2021-09-09</v>
       </c>
       <c r="Q31" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2021-09-09T13:20:00.000+9</v>
       </c>
       <c r="R31" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>2021-09-09T14:20:00.000+9</v>
       </c>
       <c r="S31" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>2021-09-09T00:00:00.000+9</v>
       </c>
-      <c r="T31" s="46" t="str">
-        <f t="shared" si="9"/>
+      <c r="T31" s="49" t="str">
+        <f t="shared" si="4"/>
         <v>2021-09-09T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20" s="1" customFormat="1">
       <c r="A32" s="13">
         <v>6</v>
       </c>
@@ -3407,7 +3155,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D32" s="29" t="b">
         <v>1</v>
@@ -3441,28 +3189,28 @@
       <c r="O32" s="20">
         <v>0</v>
       </c>
-      <c r="P32" s="41" t="str">
-        <f t="shared" si="5"/>
+      <c r="P32" s="44" t="str">
+        <f t="shared" si="0"/>
         <v>8/25～9/12_東生涯学習センター/2021-09-15</v>
       </c>
       <c r="Q32" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2021-09-15T13:20:00.000+9</v>
       </c>
       <c r="R32" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>2021-09-15T14:20:00.000+9</v>
       </c>
       <c r="S32" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>2021-09-15T00:00:00.000+9</v>
       </c>
-      <c r="T32" s="46" t="str">
-        <f t="shared" si="9"/>
+      <c r="T32" s="49" t="str">
+        <f t="shared" si="4"/>
         <v>2021-09-15T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="33" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:20" s="1" customFormat="1">
       <c r="A33" s="13">
         <v>6</v>
       </c>
@@ -3470,7 +3218,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D33" s="29" t="b">
         <v>1</v>
@@ -3504,28 +3252,28 @@
       <c r="O33" s="20">
         <v>0</v>
       </c>
-      <c r="P33" s="41" t="str">
-        <f t="shared" si="5"/>
+      <c r="P33" s="44" t="str">
+        <f t="shared" si="0"/>
         <v>8/25～9/12_東生涯学習センター/2021-09-16</v>
       </c>
       <c r="Q33" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2021-09-16T13:20:00.000+9</v>
       </c>
       <c r="R33" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>2021-09-16T14:20:00.000+9</v>
       </c>
       <c r="S33" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>2021-09-16T00:00:00.000+9</v>
       </c>
-      <c r="T33" s="46" t="str">
-        <f t="shared" si="9"/>
+      <c r="T33" s="49" t="str">
+        <f t="shared" si="4"/>
         <v>2021-09-16T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="34" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:20" s="1" customFormat="1">
       <c r="A34" s="13">
         <v>6</v>
       </c>
@@ -3533,7 +3281,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D34" s="29" t="b">
         <v>1</v>
@@ -3567,28 +3315,28 @@
       <c r="O34" s="20">
         <v>0</v>
       </c>
-      <c r="P34" s="41" t="str">
-        <f t="shared" si="5"/>
+      <c r="P34" s="44" t="str">
+        <f t="shared" si="0"/>
         <v>8/25～9/12_東生涯学習センター/2021-09-22</v>
       </c>
       <c r="Q34" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2021-09-22T13:20:00.000+9</v>
       </c>
       <c r="R34" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>2021-09-22T14:20:00.000+9</v>
       </c>
       <c r="S34" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>2021-09-22T00:00:00.000+9</v>
       </c>
-      <c r="T34" s="46" t="str">
-        <f t="shared" si="9"/>
+      <c r="T34" s="49" t="str">
+        <f t="shared" si="4"/>
         <v>2021-09-22T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="35" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:20" s="1" customFormat="1">
       <c r="A35" s="13">
         <v>6</v>
       </c>
@@ -3596,7 +3344,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D35" s="29" t="b">
         <v>1</v>
@@ -3610,7 +3358,7 @@
       <c r="G35" s="37">
         <v>0.59722222222222221</v>
       </c>
-      <c r="H35" s="55"/>
+      <c r="H35" s="37"/>
       <c r="I35" s="37"/>
       <c r="J35" s="20">
         <v>10</v>
@@ -3630,28 +3378,28 @@
       <c r="O35" s="20">
         <v>0</v>
       </c>
-      <c r="P35" s="41" t="str">
-        <f t="shared" si="5"/>
+      <c r="P35" s="44" t="str">
+        <f t="shared" si="0"/>
         <v>8/25～9/12_東生涯学習センター/2021-09-23</v>
       </c>
       <c r="Q35" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2021-09-23T13:20:00.000+9</v>
       </c>
       <c r="R35" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>2021-09-23T14:20:00.000+9</v>
       </c>
       <c r="S35" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>2021-09-23T00:00:00.000+9</v>
       </c>
-      <c r="T35" s="46" t="str">
-        <f t="shared" si="9"/>
+      <c r="T35" s="49" t="str">
+        <f t="shared" si="4"/>
         <v>2021-09-23T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="36" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:20" s="1" customFormat="1">
       <c r="A36" s="13">
         <v>6</v>
       </c>
@@ -3659,7 +3407,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D36" s="29" t="b">
         <v>1</v>
@@ -3693,28 +3441,28 @@
       <c r="O36" s="20">
         <v>0</v>
       </c>
-      <c r="P36" s="41" t="str">
-        <f t="shared" si="5"/>
+      <c r="P36" s="44" t="str">
+        <f t="shared" si="0"/>
         <v>8/25～9/12_東生涯学習センター/2021-09-29</v>
       </c>
       <c r="Q36" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2021-09-29T13:20:00.000+9</v>
       </c>
       <c r="R36" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>2021-09-29T14:20:00.000+9</v>
       </c>
       <c r="S36" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>2021-09-29T00:00:00.000+9</v>
       </c>
-      <c r="T36" s="46" t="str">
-        <f t="shared" si="9"/>
+      <c r="T36" s="49" t="str">
+        <f t="shared" si="4"/>
         <v>2021-09-29T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="37" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:20" s="1" customFormat="1">
       <c r="A37" s="13">
         <v>6</v>
       </c>
@@ -3722,7 +3470,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D37" s="29" t="b">
         <v>1</v>
@@ -3756,28 +3504,28 @@
       <c r="O37" s="20">
         <v>0</v>
       </c>
-      <c r="P37" s="41" t="str">
-        <f t="shared" si="5"/>
+      <c r="P37" s="44" t="str">
+        <f t="shared" si="0"/>
         <v>8/25～9/12_東生涯学習センター/2021-09-30</v>
       </c>
       <c r="Q37" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2021-09-30T13:20:00.000+9</v>
       </c>
       <c r="R37" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>2021-09-30T14:20:00.000+9</v>
       </c>
       <c r="S37" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>2021-09-30T00:00:00.000+9</v>
       </c>
-      <c r="T37" s="46" t="str">
-        <f t="shared" si="9"/>
+      <c r="T37" s="49" t="str">
+        <f t="shared" si="4"/>
         <v>2021-09-30T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="38" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:20" s="1" customFormat="1">
       <c r="A38" s="13">
         <v>6</v>
       </c>
@@ -3785,7 +3533,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D38" s="30" t="b">
         <v>1</v>
@@ -3793,7 +3541,7 @@
       <c r="E38" s="30">
         <v>44436</v>
       </c>
-      <c r="F38" s="60">
+      <c r="F38" s="38">
         <v>0.55555555555555602</v>
       </c>
       <c r="G38" s="38">
@@ -3819,28 +3567,28 @@
       <c r="O38" s="21">
         <v>3</v>
       </c>
-      <c r="P38" s="41" t="str">
-        <f t="shared" si="5"/>
+      <c r="P38" s="44" t="str">
+        <f t="shared" si="0"/>
         <v>8/25～9/12_東生涯学習センター/2021-08-28</v>
       </c>
       <c r="Q38" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2021-08-28T13:20:00.000+9</v>
       </c>
       <c r="R38" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>2021-08-28T16:20:00.000+9</v>
       </c>
       <c r="S38" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>2021-08-28T00:00:00.000+9</v>
       </c>
-      <c r="T38" s="46" t="str">
-        <f t="shared" si="9"/>
+      <c r="T38" s="49" t="str">
+        <f t="shared" si="4"/>
         <v>2021-08-28T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="39" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:20" s="1" customFormat="1">
       <c r="A39" s="13">
         <v>6</v>
       </c>
@@ -3848,7 +3596,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D39" s="30" t="b">
         <v>1</v>
@@ -3856,14 +3604,14 @@
       <c r="E39" s="30">
         <v>44443</v>
       </c>
-      <c r="F39" s="60">
+      <c r="F39" s="38">
         <v>0.55555555555555602</v>
       </c>
-      <c r="G39" s="60">
+      <c r="G39" s="38">
         <v>0.68055555555555547</v>
       </c>
-      <c r="H39" s="60"/>
-      <c r="I39" s="60"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
       <c r="J39" s="21">
         <v>10</v>
       </c>
@@ -3882,28 +3630,28 @@
       <c r="O39" s="21">
         <v>3</v>
       </c>
-      <c r="P39" s="41" t="str">
-        <f t="shared" si="5"/>
+      <c r="P39" s="44" t="str">
+        <f t="shared" si="0"/>
         <v>8/25～9/12_東生涯学習センター/2021-09-04</v>
       </c>
       <c r="Q39" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2021-09-04T13:20:00.000+9</v>
       </c>
       <c r="R39" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>2021-09-04T16:20:00.000+9</v>
       </c>
       <c r="S39" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>2021-09-04T00:00:00.000+9</v>
       </c>
-      <c r="T39" s="46" t="str">
-        <f t="shared" si="9"/>
+      <c r="T39" s="49" t="str">
+        <f t="shared" si="4"/>
         <v>2021-09-04T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:20" s="1" customFormat="1">
       <c r="A40" s="13">
         <v>6</v>
       </c>
@@ -3911,7 +3659,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D40" s="30" t="b">
         <v>1</v>
@@ -3919,7 +3667,7 @@
       <c r="E40" s="30">
         <v>44450</v>
       </c>
-      <c r="F40" s="60">
+      <c r="F40" s="38">
         <v>0.55555555555555602</v>
       </c>
       <c r="G40" s="38">
@@ -3945,28 +3693,28 @@
       <c r="O40" s="21">
         <v>3</v>
       </c>
-      <c r="P40" s="41" t="str">
-        <f t="shared" si="5"/>
+      <c r="P40" s="44" t="str">
+        <f t="shared" si="0"/>
         <v>8/25～9/12_東生涯学習センター/2021-09-11</v>
       </c>
       <c r="Q40" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2021-09-11T13:20:00.000+9</v>
       </c>
       <c r="R40" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>2021-09-11T16:20:00.000+9</v>
       </c>
       <c r="S40" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>2021-09-11T00:00:00.000+9</v>
       </c>
-      <c r="T40" s="46" t="str">
-        <f t="shared" si="9"/>
+      <c r="T40" s="49" t="str">
+        <f t="shared" si="4"/>
         <v>2021-09-11T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="41" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:20" s="1" customFormat="1">
       <c r="A41" s="13">
         <v>6</v>
       </c>
@@ -3974,7 +3722,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D41" s="31" t="b">
         <v>1</v>
@@ -3982,7 +3730,7 @@
       <c r="E41" s="31">
         <v>44457</v>
       </c>
-      <c r="F41" s="51">
+      <c r="F41" s="39">
         <v>0.55555555555555602</v>
       </c>
       <c r="G41" s="39">
@@ -4008,28 +3756,28 @@
       <c r="O41" s="22">
         <v>0</v>
       </c>
-      <c r="P41" s="41" t="str">
-        <f t="shared" si="5"/>
+      <c r="P41" s="44" t="str">
+        <f t="shared" si="0"/>
         <v>8/25～9/12_東生涯学習センター/2021-09-18</v>
       </c>
       <c r="Q41" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2021-09-18T13:20:00.000+9</v>
       </c>
       <c r="R41" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>2021-09-18T16:20:00.000+9</v>
       </c>
       <c r="S41" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>2021-09-18T00:00:00.000+9</v>
       </c>
-      <c r="T41" s="46" t="str">
-        <f t="shared" si="9"/>
+      <c r="T41" s="49" t="str">
+        <f t="shared" si="4"/>
         <v>2021-09-18T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="42" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:20" s="1" customFormat="1">
       <c r="A42" s="13">
         <v>6</v>
       </c>
@@ -4037,22 +3785,22 @@
         <v>41</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D42" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="E42" s="50">
+      <c r="E42" s="31">
         <v>44464</v>
       </c>
-      <c r="F42" s="51">
+      <c r="F42" s="39">
         <v>0.55555555555555602</v>
       </c>
-      <c r="G42" s="51">
+      <c r="G42" s="39">
         <v>0.68055555555555547</v>
       </c>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
       <c r="J42" s="22">
         <v>10</v>
       </c>
@@ -4071,28 +3819,28 @@
       <c r="O42" s="22">
         <v>0</v>
       </c>
-      <c r="P42" s="41" t="str">
-        <f t="shared" si="5"/>
+      <c r="P42" s="44" t="str">
+        <f t="shared" si="0"/>
         <v>8/25～9/12_東生涯学習センター/2021-09-25</v>
       </c>
       <c r="Q42" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2021-09-25T13:20:00.000+9</v>
       </c>
       <c r="R42" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>2021-09-25T16:20:00.000+9</v>
       </c>
       <c r="S42" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>2021-09-25T00:00:00.000+9</v>
       </c>
-      <c r="T42" s="46" t="str">
-        <f t="shared" si="9"/>
+      <c r="T42" s="49" t="str">
+        <f t="shared" si="4"/>
         <v>2021-09-25T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="43" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:20" s="1" customFormat="1">
       <c r="A43" s="13">
         <v>6</v>
       </c>
@@ -4100,7 +3848,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D43" s="31" t="b">
         <v>1</v>
@@ -4108,7 +3856,7 @@
       <c r="E43" s="31">
         <v>44471</v>
       </c>
-      <c r="F43" s="51">
+      <c r="F43" s="39">
         <v>0.55555555555555602</v>
       </c>
       <c r="G43" s="39">
@@ -4134,28 +3882,28 @@
       <c r="O43" s="22">
         <v>0</v>
       </c>
-      <c r="P43" s="41" t="str">
-        <f t="shared" si="5"/>
+      <c r="P43" s="44" t="str">
+        <f t="shared" si="0"/>
         <v>8/25～9/12_東生涯学習センター/2021-10-02</v>
       </c>
       <c r="Q43" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2021-10-02T13:20:00.000+9</v>
       </c>
       <c r="R43" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>2021-10-02T16:20:00.000+9</v>
       </c>
       <c r="S43" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>2021-10-02T00:00:00.000+9</v>
       </c>
-      <c r="T43" s="46" t="str">
-        <f t="shared" si="9"/>
+      <c r="T43" s="49" t="str">
+        <f t="shared" si="4"/>
         <v>2021-10-02T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="44" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:20" s="1" customFormat="1">
       <c r="A44" s="13">
         <v>6</v>
       </c>
@@ -4163,7 +3911,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D44" s="32" t="b">
         <v>1</v>
@@ -4171,16 +3919,16 @@
       <c r="E44" s="32">
         <v>44437</v>
       </c>
-      <c r="F44" s="56">
+      <c r="F44" s="40">
         <v>0.43055555555555558</v>
       </c>
-      <c r="G44" s="56">
+      <c r="G44" s="40">
         <v>0.63888888888888895</v>
       </c>
-      <c r="H44" s="56">
+      <c r="H44" s="40">
         <v>0.49305555555555558</v>
       </c>
-      <c r="I44" s="56">
+      <c r="I44" s="40">
         <v>0.57638888888888895</v>
       </c>
       <c r="J44" s="23">
@@ -4201,28 +3949,28 @@
       <c r="O44" s="23">
         <v>3</v>
       </c>
-      <c r="P44" s="41" t="str">
-        <f t="shared" ref="P44:P73" si="10">C44&amp;"/"&amp;TEXT(E44,"yyyy-mm-dd")</f>
+      <c r="P44" s="44" t="str">
+        <f t="shared" si="0"/>
         <v>8/25～9/12_東生涯学習センター/2021-08-29</v>
       </c>
       <c r="Q44" s="9" t="str">
-        <f t="shared" ref="Q44:Q73" si="11">TEXT(E44,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F44,"hh:MM")&amp;":00.000+9"</f>
+        <f t="shared" si="1"/>
         <v>2021-08-29T10:20:00.000+9</v>
       </c>
       <c r="R44" s="9" t="str">
-        <f t="shared" ref="R44:R73" si="12">TEXT(E44,"yyyy-mm-dd")&amp;"T"&amp;TEXT(G44,"hh:MM")&amp;":00.000+9"</f>
+        <f t="shared" si="2"/>
         <v>2021-08-29T15:20:00.000+9</v>
       </c>
       <c r="S44" s="9" t="str">
-        <f t="shared" ref="S44:S73" si="13">TEXT(E44,"yyyy-mm-dd")&amp;"T"&amp;TEXT(H44,"hh:MM")&amp;":00.000+9"</f>
+        <f t="shared" si="3"/>
         <v>2021-08-29T11:50:00.000+9</v>
       </c>
-      <c r="T44" s="46" t="str">
-        <f t="shared" ref="T44:T73" si="14">TEXT(E44,"yyyy-mm-dd")&amp;"T"&amp;TEXT(I44,"hh:MM")&amp;":00.000+9"</f>
+      <c r="T44" s="49" t="str">
+        <f t="shared" si="4"/>
         <v>2021-08-29T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="45" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:20" s="1" customFormat="1">
       <c r="A45" s="13">
         <v>6</v>
       </c>
@@ -4230,7 +3978,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D45" s="32" t="b">
         <v>1</v>
@@ -4238,16 +3986,16 @@
       <c r="E45" s="32">
         <v>44444</v>
       </c>
-      <c r="F45" s="57">
+      <c r="F45" s="40">
         <v>0.43055555555555558</v>
       </c>
-      <c r="G45" s="57">
+      <c r="G45" s="40">
         <v>0.63888888888888895</v>
       </c>
-      <c r="H45" s="57">
+      <c r="H45" s="40">
         <v>0.49305555555555558</v>
       </c>
-      <c r="I45" s="57">
+      <c r="I45" s="40">
         <v>0.57638888888888895</v>
       </c>
       <c r="J45" s="23">
@@ -4268,28 +4016,28 @@
       <c r="O45" s="23">
         <v>3</v>
       </c>
-      <c r="P45" s="41" t="str">
-        <f t="shared" si="10"/>
+      <c r="P45" s="44" t="str">
+        <f t="shared" si="0"/>
         <v>8/25～9/12_東生涯学習センター/2021-09-05</v>
       </c>
       <c r="Q45" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>2021-09-05T10:20:00.000+9</v>
       </c>
       <c r="R45" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>2021-09-05T15:20:00.000+9</v>
       </c>
       <c r="S45" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>2021-09-05T11:50:00.000+9</v>
       </c>
-      <c r="T45" s="46" t="str">
-        <f t="shared" si="14"/>
+      <c r="T45" s="49" t="str">
+        <f t="shared" si="4"/>
         <v>2021-09-05T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="46" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:20" s="1" customFormat="1">
       <c r="A46" s="13">
         <v>6</v>
       </c>
@@ -4297,7 +4045,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D46" s="32" t="b">
         <v>1</v>
@@ -4305,16 +4053,16 @@
       <c r="E46" s="32">
         <v>44451</v>
       </c>
-      <c r="F46" s="56">
+      <c r="F46" s="40">
         <v>0.43055555555555558</v>
       </c>
-      <c r="G46" s="56">
+      <c r="G46" s="40">
         <v>0.63888888888888895</v>
       </c>
-      <c r="H46" s="56">
+      <c r="H46" s="40">
         <v>0.49305555555555558</v>
       </c>
-      <c r="I46" s="56">
+      <c r="I46" s="40">
         <v>0.57638888888888895</v>
       </c>
       <c r="J46" s="23">
@@ -4335,28 +4083,28 @@
       <c r="O46" s="23">
         <v>3</v>
       </c>
-      <c r="P46" s="41" t="str">
-        <f t="shared" si="10"/>
+      <c r="P46" s="44" t="str">
+        <f t="shared" si="0"/>
         <v>8/25～9/12_東生涯学習センター/2021-09-12</v>
       </c>
       <c r="Q46" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>2021-09-12T10:20:00.000+9</v>
       </c>
       <c r="R46" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>2021-09-12T15:20:00.000+9</v>
       </c>
       <c r="S46" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>2021-09-12T11:50:00.000+9</v>
       </c>
-      <c r="T46" s="46" t="str">
-        <f t="shared" si="14"/>
+      <c r="T46" s="49" t="str">
+        <f t="shared" si="4"/>
         <v>2021-09-12T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="47" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:20" s="1" customFormat="1">
       <c r="A47" s="13">
         <v>6</v>
       </c>
@@ -4364,7 +4112,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D47" s="33" t="b">
         <v>1</v>
@@ -4372,16 +4120,16 @@
       <c r="E47" s="33">
         <v>44458</v>
       </c>
-      <c r="F47" s="58">
+      <c r="F47" s="41">
         <v>0.43055555555555558</v>
       </c>
-      <c r="G47" s="58">
+      <c r="G47" s="41">
         <v>0.63888888888888895</v>
       </c>
-      <c r="H47" s="58">
+      <c r="H47" s="41">
         <v>0.49305555555555558</v>
       </c>
-      <c r="I47" s="58">
+      <c r="I47" s="41">
         <v>0.57638888888888895</v>
       </c>
       <c r="J47" s="24">
@@ -4402,28 +4150,28 @@
       <c r="O47" s="24">
         <v>0</v>
       </c>
-      <c r="P47" s="41" t="str">
-        <f t="shared" si="10"/>
+      <c r="P47" s="44" t="str">
+        <f t="shared" si="0"/>
         <v>8/25～9/12_東生涯学習センター/2021-09-19</v>
       </c>
       <c r="Q47" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>2021-09-19T10:20:00.000+9</v>
       </c>
       <c r="R47" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>2021-09-19T15:20:00.000+9</v>
       </c>
       <c r="S47" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>2021-09-19T11:50:00.000+9</v>
       </c>
-      <c r="T47" s="46" t="str">
-        <f t="shared" si="14"/>
+      <c r="T47" s="49" t="str">
+        <f t="shared" si="4"/>
         <v>2021-09-19T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="48" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:20" s="1" customFormat="1">
       <c r="A48" s="13">
         <v>6</v>
       </c>
@@ -4431,24 +4179,24 @@
         <v>47</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D48" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="E48" s="53">
+      <c r="E48" s="33">
         <v>44465</v>
       </c>
-      <c r="F48" s="54">
+      <c r="F48" s="41">
         <v>0.43055555555555558</v>
       </c>
-      <c r="G48" s="54">
+      <c r="G48" s="41">
         <v>0.63888888888888895</v>
       </c>
-      <c r="H48" s="54">
+      <c r="H48" s="41">
         <v>0.49305555555555558</v>
       </c>
-      <c r="I48" s="54">
+      <c r="I48" s="41">
         <v>0.57638888888888895</v>
       </c>
       <c r="J48" s="24">
@@ -4469,28 +4217,28 @@
       <c r="O48" s="24">
         <v>0</v>
       </c>
-      <c r="P48" s="41" t="str">
-        <f t="shared" si="10"/>
+      <c r="P48" s="44" t="str">
+        <f t="shared" si="0"/>
         <v>8/25～9/12_東生涯学習センター/2021-09-26</v>
       </c>
       <c r="Q48" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>2021-09-26T10:20:00.000+9</v>
       </c>
       <c r="R48" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>2021-09-26T15:20:00.000+9</v>
       </c>
       <c r="S48" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>2021-09-26T11:50:00.000+9</v>
       </c>
-      <c r="T48" s="46" t="str">
-        <f t="shared" si="14"/>
+      <c r="T48" s="49" t="str">
+        <f t="shared" si="4"/>
         <v>2021-09-26T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="49" spans="1:20" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" s="1" customFormat="1" ht="14.25">
       <c r="A49" s="14">
         <v>6</v>
       </c>
@@ -4498,7 +4246,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D49" s="34" t="b">
         <v>1</v>
@@ -4506,16 +4254,16 @@
       <c r="E49" s="34">
         <v>44472</v>
       </c>
-      <c r="F49" s="59">
+      <c r="F49" s="42">
         <v>0.43055555555555558</v>
       </c>
-      <c r="G49" s="59">
+      <c r="G49" s="42">
         <v>0.63888888888888895</v>
       </c>
-      <c r="H49" s="59">
+      <c r="H49" s="42">
         <v>0.49305555555555558</v>
       </c>
-      <c r="I49" s="59">
+      <c r="I49" s="42">
         <v>0.57638888888888895</v>
       </c>
       <c r="J49" s="25">
@@ -4536,28 +4284,28 @@
       <c r="O49" s="25">
         <v>0</v>
       </c>
-      <c r="P49" s="42" t="str">
-        <f t="shared" si="10"/>
+      <c r="P49" s="45" t="str">
+        <f t="shared" si="0"/>
         <v>8/25～9/12_東生涯学習センター/2021-10-03</v>
       </c>
-      <c r="Q49" s="44" t="str">
-        <f t="shared" si="11"/>
+      <c r="Q49" s="47" t="str">
+        <f t="shared" si="1"/>
         <v>2021-10-03T10:20:00.000+9</v>
       </c>
-      <c r="R49" s="44" t="str">
-        <f t="shared" si="12"/>
+      <c r="R49" s="47" t="str">
+        <f t="shared" si="2"/>
         <v>2021-10-03T15:20:00.000+9</v>
       </c>
-      <c r="S49" s="44" t="str">
-        <f t="shared" si="13"/>
+      <c r="S49" s="47" t="str">
+        <f t="shared" si="3"/>
         <v>2021-10-03T11:50:00.000+9</v>
       </c>
-      <c r="T49" s="47" t="str">
-        <f t="shared" si="14"/>
+      <c r="T49" s="50" t="str">
+        <f t="shared" si="4"/>
         <v>2021-10-03T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="50" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:20" s="1" customFormat="1">
       <c r="A50" s="12">
         <v>6</v>
       </c>
@@ -4565,7 +4313,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D50" s="27" t="b">
         <v>1</v>
@@ -4599,28 +4347,28 @@
       <c r="O50" s="18">
         <v>3</v>
       </c>
-      <c r="P50" s="40" t="str">
-        <f t="shared" si="10"/>
+      <c r="P50" s="43" t="str">
+        <f t="shared" si="0"/>
         <v>8/25～9/12_西南生涯学習センター/2021-08-25</v>
       </c>
-      <c r="Q50" s="43" t="str">
-        <f t="shared" si="11"/>
+      <c r="Q50" s="46" t="str">
+        <f t="shared" si="1"/>
         <v>2021-08-25T13:20:00.000+9</v>
       </c>
-      <c r="R50" s="43" t="str">
-        <f t="shared" si="12"/>
+      <c r="R50" s="46" t="str">
+        <f t="shared" si="2"/>
         <v>2021-08-25T14:20:00.000+9</v>
       </c>
-      <c r="S50" s="43" t="str">
-        <f t="shared" si="13"/>
+      <c r="S50" s="46" t="str">
+        <f t="shared" si="3"/>
         <v>2021-08-25T00:00:00.000+9</v>
       </c>
-      <c r="T50" s="45" t="str">
-        <f t="shared" si="14"/>
+      <c r="T50" s="48" t="str">
+        <f t="shared" si="4"/>
         <v>2021-08-25T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="51" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:20" s="1" customFormat="1">
       <c r="A51" s="13">
         <v>6</v>
       </c>
@@ -4628,7 +4376,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D51" s="28" t="b">
         <v>1</v>
@@ -4662,28 +4410,28 @@
       <c r="O51" s="19">
         <v>3</v>
       </c>
-      <c r="P51" s="41" t="str">
-        <f t="shared" si="10"/>
+      <c r="P51" s="44" t="str">
+        <f t="shared" si="0"/>
         <v>8/25～9/12_西南生涯学習センター/2021-08-26</v>
       </c>
       <c r="Q51" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>2021-08-26T13:20:00.000+9</v>
       </c>
       <c r="R51" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>2021-08-26T14:20:00.000+9</v>
       </c>
       <c r="S51" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>2021-08-26T00:00:00.000+9</v>
       </c>
-      <c r="T51" s="46" t="str">
-        <f t="shared" si="14"/>
+      <c r="T51" s="49" t="str">
+        <f t="shared" si="4"/>
         <v>2021-08-26T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="52" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:20" s="1" customFormat="1">
       <c r="A52" s="13">
         <v>6</v>
       </c>
@@ -4691,7 +4439,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D52" s="28" t="b">
         <v>1</v>
@@ -4725,28 +4473,28 @@
       <c r="O52" s="19">
         <v>3</v>
       </c>
-      <c r="P52" s="41" t="str">
-        <f t="shared" si="10"/>
+      <c r="P52" s="44" t="str">
+        <f t="shared" si="0"/>
         <v>8/25～9/12_西南生涯学習センター/2021-09-01</v>
       </c>
       <c r="Q52" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>2021-09-01T13:20:00.000+9</v>
       </c>
       <c r="R52" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>2021-09-01T14:20:00.000+9</v>
       </c>
       <c r="S52" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>2021-09-01T00:00:00.000+9</v>
       </c>
-      <c r="T52" s="46" t="str">
-        <f t="shared" si="14"/>
+      <c r="T52" s="49" t="str">
+        <f t="shared" si="4"/>
         <v>2021-09-01T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="53" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:20" s="1" customFormat="1">
       <c r="A53" s="13">
         <v>6</v>
       </c>
@@ -4754,7 +4502,7 @@
         <v>52</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D53" s="28" t="b">
         <v>1</v>
@@ -4768,7 +4516,7 @@
       <c r="G53" s="36">
         <v>0.59722222222222221</v>
       </c>
-      <c r="H53" s="52"/>
+      <c r="H53" s="36"/>
       <c r="I53" s="36"/>
       <c r="J53" s="19">
         <v>10</v>
@@ -4788,28 +4536,28 @@
       <c r="O53" s="19">
         <v>3</v>
       </c>
-      <c r="P53" s="41" t="str">
-        <f t="shared" si="10"/>
+      <c r="P53" s="44" t="str">
+        <f t="shared" si="0"/>
         <v>8/25～9/12_西南生涯学習センター/2021-09-02</v>
       </c>
       <c r="Q53" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>2021-09-02T13:20:00.000+9</v>
       </c>
       <c r="R53" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>2021-09-02T14:20:00.000+9</v>
       </c>
       <c r="S53" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>2021-09-02T00:00:00.000+9</v>
       </c>
-      <c r="T53" s="46" t="str">
-        <f t="shared" si="14"/>
+      <c r="T53" s="49" t="str">
+        <f t="shared" si="4"/>
         <v>2021-09-02T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="54" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:20" s="1" customFormat="1">
       <c r="A54" s="13">
         <v>6</v>
       </c>
@@ -4817,7 +4565,7 @@
         <v>53</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D54" s="28" t="b">
         <v>1</v>
@@ -4851,28 +4599,28 @@
       <c r="O54" s="19">
         <v>3</v>
       </c>
-      <c r="P54" s="41" t="str">
-        <f t="shared" si="10"/>
+      <c r="P54" s="44" t="str">
+        <f t="shared" si="0"/>
         <v>8/25～9/12_西南生涯学習センター/2021-09-08</v>
       </c>
       <c r="Q54" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>2021-09-08T13:20:00.000+9</v>
       </c>
       <c r="R54" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>2021-09-08T14:20:00.000+9</v>
       </c>
       <c r="S54" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>2021-09-08T00:00:00.000+9</v>
       </c>
-      <c r="T54" s="46" t="str">
-        <f t="shared" si="14"/>
+      <c r="T54" s="49" t="str">
+        <f t="shared" si="4"/>
         <v>2021-09-08T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="55" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:20" s="1" customFormat="1">
       <c r="A55" s="13">
         <v>6</v>
       </c>
@@ -4880,7 +4628,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D55" s="28" t="b">
         <v>1</v>
@@ -4914,28 +4662,28 @@
       <c r="O55" s="19">
         <v>3</v>
       </c>
-      <c r="P55" s="41" t="str">
-        <f t="shared" si="10"/>
+      <c r="P55" s="44" t="str">
+        <f t="shared" si="0"/>
         <v>8/25～9/12_西南生涯学習センター/2021-09-09</v>
       </c>
       <c r="Q55" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>2021-09-09T13:20:00.000+9</v>
       </c>
       <c r="R55" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>2021-09-09T14:20:00.000+9</v>
       </c>
       <c r="S55" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>2021-09-09T00:00:00.000+9</v>
       </c>
-      <c r="T55" s="46" t="str">
-        <f t="shared" si="14"/>
+      <c r="T55" s="49" t="str">
+        <f t="shared" si="4"/>
         <v>2021-09-09T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="56" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:20" s="1" customFormat="1">
       <c r="A56" s="13">
         <v>6</v>
       </c>
@@ -4943,7 +4691,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D56" s="29" t="b">
         <v>1</v>
@@ -4977,28 +4725,28 @@
       <c r="O56" s="20">
         <v>0</v>
       </c>
-      <c r="P56" s="41" t="str">
-        <f t="shared" si="10"/>
+      <c r="P56" s="44" t="str">
+        <f t="shared" si="0"/>
         <v>8/25～9/12_西南生涯学習センター/2021-09-15</v>
       </c>
       <c r="Q56" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>2021-09-15T13:20:00.000+9</v>
       </c>
       <c r="R56" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>2021-09-15T14:20:00.000+9</v>
       </c>
       <c r="S56" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>2021-09-15T00:00:00.000+9</v>
       </c>
-      <c r="T56" s="46" t="str">
-        <f t="shared" si="14"/>
+      <c r="T56" s="49" t="str">
+        <f t="shared" si="4"/>
         <v>2021-09-15T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="57" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:20" s="1" customFormat="1">
       <c r="A57" s="13">
         <v>6</v>
       </c>
@@ -5006,7 +4754,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D57" s="29" t="b">
         <v>1</v>
@@ -5040,28 +4788,28 @@
       <c r="O57" s="20">
         <v>0</v>
       </c>
-      <c r="P57" s="41" t="str">
-        <f t="shared" si="10"/>
+      <c r="P57" s="44" t="str">
+        <f t="shared" si="0"/>
         <v>8/25～9/12_西南生涯学習センター/2021-09-16</v>
       </c>
       <c r="Q57" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>2021-09-16T13:20:00.000+9</v>
       </c>
       <c r="R57" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>2021-09-16T14:20:00.000+9</v>
       </c>
       <c r="S57" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>2021-09-16T00:00:00.000+9</v>
       </c>
-      <c r="T57" s="46" t="str">
-        <f t="shared" si="14"/>
+      <c r="T57" s="49" t="str">
+        <f t="shared" si="4"/>
         <v>2021-09-16T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="58" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:20" s="1" customFormat="1">
       <c r="A58" s="13">
         <v>6</v>
       </c>
@@ -5069,7 +4817,7 @@
         <v>57</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D58" s="29" t="b">
         <v>1</v>
@@ -5103,28 +4851,28 @@
       <c r="O58" s="20">
         <v>0</v>
       </c>
-      <c r="P58" s="41" t="str">
-        <f t="shared" si="10"/>
+      <c r="P58" s="44" t="str">
+        <f t="shared" si="0"/>
         <v>8/25～9/12_西南生涯学習センター/2021-09-22</v>
       </c>
       <c r="Q58" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>2021-09-22T13:20:00.000+9</v>
       </c>
       <c r="R58" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>2021-09-22T14:20:00.000+9</v>
       </c>
       <c r="S58" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>2021-09-22T00:00:00.000+9</v>
       </c>
-      <c r="T58" s="46" t="str">
-        <f t="shared" si="14"/>
+      <c r="T58" s="49" t="str">
+        <f t="shared" si="4"/>
         <v>2021-09-22T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="59" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:20" s="1" customFormat="1">
       <c r="A59" s="13">
         <v>6</v>
       </c>
@@ -5132,7 +4880,7 @@
         <v>58</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D59" s="29" t="b">
         <v>1</v>
@@ -5146,7 +4894,7 @@
       <c r="G59" s="37">
         <v>0.59722222222222221</v>
       </c>
-      <c r="H59" s="55"/>
+      <c r="H59" s="37"/>
       <c r="I59" s="37"/>
       <c r="J59" s="20">
         <v>10</v>
@@ -5166,28 +4914,28 @@
       <c r="O59" s="20">
         <v>0</v>
       </c>
-      <c r="P59" s="41" t="str">
-        <f t="shared" si="10"/>
+      <c r="P59" s="44" t="str">
+        <f t="shared" si="0"/>
         <v>8/25～9/12_西南生涯学習センター/2021-09-23</v>
       </c>
       <c r="Q59" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>2021-09-23T13:20:00.000+9</v>
       </c>
       <c r="R59" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>2021-09-23T14:20:00.000+9</v>
       </c>
       <c r="S59" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>2021-09-23T00:00:00.000+9</v>
       </c>
-      <c r="T59" s="46" t="str">
-        <f t="shared" si="14"/>
+      <c r="T59" s="49" t="str">
+        <f t="shared" si="4"/>
         <v>2021-09-23T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="60" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:20" s="1" customFormat="1">
       <c r="A60" s="13">
         <v>6</v>
       </c>
@@ -5195,7 +4943,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D60" s="29" t="b">
         <v>1</v>
@@ -5229,28 +4977,28 @@
       <c r="O60" s="20">
         <v>0</v>
       </c>
-      <c r="P60" s="41" t="str">
-        <f t="shared" si="10"/>
+      <c r="P60" s="44" t="str">
+        <f t="shared" si="0"/>
         <v>8/25～9/12_西南生涯学習センター/2021-09-29</v>
       </c>
       <c r="Q60" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>2021-09-29T13:20:00.000+9</v>
       </c>
       <c r="R60" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>2021-09-29T14:20:00.000+9</v>
       </c>
       <c r="S60" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>2021-09-29T00:00:00.000+9</v>
       </c>
-      <c r="T60" s="46" t="str">
-        <f t="shared" si="14"/>
+      <c r="T60" s="49" t="str">
+        <f t="shared" si="4"/>
         <v>2021-09-29T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="61" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:20" s="1" customFormat="1">
       <c r="A61" s="13">
         <v>6</v>
       </c>
@@ -5258,7 +5006,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D61" s="29" t="b">
         <v>1</v>
@@ -5292,28 +5040,28 @@
       <c r="O61" s="20">
         <v>0</v>
       </c>
-      <c r="P61" s="41" t="str">
-        <f t="shared" si="10"/>
+      <c r="P61" s="44" t="str">
+        <f t="shared" si="0"/>
         <v>8/25～9/12_西南生涯学習センター/2021-09-30</v>
       </c>
       <c r="Q61" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>2021-09-30T13:20:00.000+9</v>
       </c>
       <c r="R61" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>2021-09-30T14:20:00.000+9</v>
       </c>
       <c r="S61" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>2021-09-30T00:00:00.000+9</v>
       </c>
-      <c r="T61" s="46" t="str">
-        <f t="shared" si="14"/>
+      <c r="T61" s="49" t="str">
+        <f t="shared" si="4"/>
         <v>2021-09-30T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="62" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:20" s="1" customFormat="1">
       <c r="A62" s="13">
         <v>6</v>
       </c>
@@ -5321,7 +5069,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D62" s="30" t="b">
         <v>1</v>
@@ -5329,7 +5077,7 @@
       <c r="E62" s="30">
         <v>44436</v>
       </c>
-      <c r="F62" s="60">
+      <c r="F62" s="38">
         <v>0.55555555555555602</v>
       </c>
       <c r="G62" s="38">
@@ -5355,28 +5103,28 @@
       <c r="O62" s="21">
         <v>3</v>
       </c>
-      <c r="P62" s="41" t="str">
-        <f t="shared" si="10"/>
+      <c r="P62" s="44" t="str">
+        <f t="shared" si="0"/>
         <v>8/25～9/12_西南生涯学習センター/2021-08-28</v>
       </c>
       <c r="Q62" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>2021-08-28T13:20:00.000+9</v>
       </c>
       <c r="R62" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>2021-08-28T16:20:00.000+9</v>
       </c>
       <c r="S62" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>2021-08-28T00:00:00.000+9</v>
       </c>
-      <c r="T62" s="46" t="str">
-        <f t="shared" si="14"/>
+      <c r="T62" s="49" t="str">
+        <f t="shared" si="4"/>
         <v>2021-08-28T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="63" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:20" s="1" customFormat="1">
       <c r="A63" s="13">
         <v>6</v>
       </c>
@@ -5384,7 +5132,7 @@
         <v>62</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D63" s="30" t="b">
         <v>1</v>
@@ -5392,14 +5140,14 @@
       <c r="E63" s="30">
         <v>44443</v>
       </c>
-      <c r="F63" s="60">
+      <c r="F63" s="38">
         <v>0.55555555555555602</v>
       </c>
-      <c r="G63" s="60">
+      <c r="G63" s="38">
         <v>0.68055555555555547</v>
       </c>
-      <c r="H63" s="60"/>
-      <c r="I63" s="60"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="38"/>
       <c r="J63" s="21">
         <v>10</v>
       </c>
@@ -5418,28 +5166,28 @@
       <c r="O63" s="21">
         <v>3</v>
       </c>
-      <c r="P63" s="41" t="str">
-        <f t="shared" si="10"/>
+      <c r="P63" s="44" t="str">
+        <f t="shared" si="0"/>
         <v>8/25～9/12_西南生涯学習センター/2021-09-04</v>
       </c>
       <c r="Q63" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>2021-09-04T13:20:00.000+9</v>
       </c>
       <c r="R63" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>2021-09-04T16:20:00.000+9</v>
       </c>
       <c r="S63" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>2021-09-04T00:00:00.000+9</v>
       </c>
-      <c r="T63" s="46" t="str">
-        <f t="shared" si="14"/>
+      <c r="T63" s="49" t="str">
+        <f t="shared" si="4"/>
         <v>2021-09-04T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="64" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:20" s="1" customFormat="1">
       <c r="A64" s="13">
         <v>6</v>
       </c>
@@ -5447,7 +5195,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D64" s="30" t="b">
         <v>1</v>
@@ -5455,7 +5203,7 @@
       <c r="E64" s="30">
         <v>44450</v>
       </c>
-      <c r="F64" s="60">
+      <c r="F64" s="38">
         <v>0.55555555555555602</v>
       </c>
       <c r="G64" s="38">
@@ -5481,28 +5229,28 @@
       <c r="O64" s="21">
         <v>3</v>
       </c>
-      <c r="P64" s="41" t="str">
-        <f t="shared" si="10"/>
+      <c r="P64" s="44" t="str">
+        <f t="shared" si="0"/>
         <v>8/25～9/12_西南生涯学習センター/2021-09-11</v>
       </c>
       <c r="Q64" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>2021-09-11T13:20:00.000+9</v>
       </c>
       <c r="R64" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>2021-09-11T16:20:00.000+9</v>
       </c>
       <c r="S64" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>2021-09-11T00:00:00.000+9</v>
       </c>
-      <c r="T64" s="46" t="str">
-        <f t="shared" si="14"/>
+      <c r="T64" s="49" t="str">
+        <f t="shared" si="4"/>
         <v>2021-09-11T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="65" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:20" s="1" customFormat="1">
       <c r="A65" s="13">
         <v>6</v>
       </c>
@@ -5510,7 +5258,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D65" s="31" t="b">
         <v>1</v>
@@ -5518,7 +5266,7 @@
       <c r="E65" s="31">
         <v>44457</v>
       </c>
-      <c r="F65" s="51">
+      <c r="F65" s="39">
         <v>0.55555555555555602</v>
       </c>
       <c r="G65" s="39">
@@ -5544,28 +5292,28 @@
       <c r="O65" s="22">
         <v>0</v>
       </c>
-      <c r="P65" s="41" t="str">
-        <f t="shared" si="10"/>
+      <c r="P65" s="44" t="str">
+        <f t="shared" si="0"/>
         <v>8/25～9/12_西南生涯学習センター/2021-09-18</v>
       </c>
       <c r="Q65" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>2021-09-18T13:20:00.000+9</v>
       </c>
       <c r="R65" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>2021-09-18T16:20:00.000+9</v>
       </c>
       <c r="S65" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>2021-09-18T00:00:00.000+9</v>
       </c>
-      <c r="T65" s="46" t="str">
-        <f t="shared" si="14"/>
+      <c r="T65" s="49" t="str">
+        <f t="shared" si="4"/>
         <v>2021-09-18T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="66" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:20" s="1" customFormat="1">
       <c r="A66" s="13">
         <v>6</v>
       </c>
@@ -5573,22 +5321,22 @@
         <v>65</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D66" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="E66" s="50">
+      <c r="E66" s="31">
         <v>44464</v>
       </c>
-      <c r="F66" s="51">
+      <c r="F66" s="39">
         <v>0.55555555555555602</v>
       </c>
-      <c r="G66" s="51">
+      <c r="G66" s="39">
         <v>0.68055555555555547</v>
       </c>
-      <c r="H66" s="51"/>
-      <c r="I66" s="51"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="39"/>
       <c r="J66" s="22">
         <v>10</v>
       </c>
@@ -5607,28 +5355,28 @@
       <c r="O66" s="22">
         <v>0</v>
       </c>
-      <c r="P66" s="41" t="str">
-        <f t="shared" si="10"/>
+      <c r="P66" s="44" t="str">
+        <f t="shared" ref="P66:P73" si="5">C66&amp;"/"&amp;TEXT(E66,"yyyy-mm-dd")</f>
         <v>8/25～9/12_西南生涯学習センター/2021-09-25</v>
       </c>
       <c r="Q66" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="Q66:Q73" si="6">TEXT(E66,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F66,"hh:MM")&amp;":00.000+9"</f>
         <v>2021-09-25T13:20:00.000+9</v>
       </c>
       <c r="R66" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="R66:R73" si="7">TEXT(E66,"yyyy-mm-dd")&amp;"T"&amp;TEXT(G66,"hh:MM")&amp;":00.000+9"</f>
         <v>2021-09-25T16:20:00.000+9</v>
       </c>
       <c r="S66" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="S66:S73" si="8">TEXT(E66,"yyyy-mm-dd")&amp;"T"&amp;TEXT(H66,"hh:MM")&amp;":00.000+9"</f>
         <v>2021-09-25T00:00:00.000+9</v>
       </c>
-      <c r="T66" s="46" t="str">
-        <f t="shared" si="14"/>
+      <c r="T66" s="49" t="str">
+        <f t="shared" ref="T66:T73" si="9">TEXT(E66,"yyyy-mm-dd")&amp;"T"&amp;TEXT(I66,"hh:MM")&amp;":00.000+9"</f>
         <v>2021-09-25T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="67" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:20" s="1" customFormat="1">
       <c r="A67" s="13">
         <v>6</v>
       </c>
@@ -5636,7 +5384,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D67" s="31" t="b">
         <v>1</v>
@@ -5644,7 +5392,7 @@
       <c r="E67" s="31">
         <v>44471</v>
       </c>
-      <c r="F67" s="51">
+      <c r="F67" s="39">
         <v>0.55555555555555602</v>
       </c>
       <c r="G67" s="39">
@@ -5670,28 +5418,28 @@
       <c r="O67" s="22">
         <v>0</v>
       </c>
-      <c r="P67" s="41" t="str">
-        <f t="shared" si="10"/>
+      <c r="P67" s="44" t="str">
+        <f t="shared" si="5"/>
         <v>8/25～9/12_西南生涯学習センター/2021-10-02</v>
       </c>
       <c r="Q67" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>2021-10-02T13:20:00.000+9</v>
       </c>
       <c r="R67" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>2021-10-02T16:20:00.000+9</v>
       </c>
       <c r="S67" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>2021-10-02T00:00:00.000+9</v>
       </c>
-      <c r="T67" s="46" t="str">
-        <f t="shared" si="14"/>
+      <c r="T67" s="49" t="str">
+        <f t="shared" si="9"/>
         <v>2021-10-02T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="68" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:20" s="1" customFormat="1">
       <c r="A68" s="13">
         <v>6</v>
       </c>
@@ -5699,7 +5447,7 @@
         <v>67</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D68" s="32" t="b">
         <v>1</v>
@@ -5707,16 +5455,16 @@
       <c r="E68" s="32">
         <v>44437</v>
       </c>
-      <c r="F68" s="56">
+      <c r="F68" s="40">
         <v>0.43055555555555558</v>
       </c>
-      <c r="G68" s="56">
+      <c r="G68" s="40">
         <v>0.63888888888888895</v>
       </c>
-      <c r="H68" s="56">
+      <c r="H68" s="40">
         <v>0.49305555555555558</v>
       </c>
-      <c r="I68" s="56">
+      <c r="I68" s="40">
         <v>0.57638888888888895</v>
       </c>
       <c r="J68" s="23">
@@ -5737,28 +5485,28 @@
       <c r="O68" s="23">
         <v>3</v>
       </c>
-      <c r="P68" s="41" t="str">
-        <f t="shared" si="10"/>
+      <c r="P68" s="44" t="str">
+        <f t="shared" si="5"/>
         <v>8/25～9/12_西南生涯学習センター/2021-08-29</v>
       </c>
       <c r="Q68" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>2021-08-29T10:20:00.000+9</v>
       </c>
       <c r="R68" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>2021-08-29T15:20:00.000+9</v>
       </c>
       <c r="S68" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>2021-08-29T11:50:00.000+9</v>
       </c>
-      <c r="T68" s="46" t="str">
-        <f t="shared" si="14"/>
+      <c r="T68" s="49" t="str">
+        <f t="shared" si="9"/>
         <v>2021-08-29T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="69" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:20" s="1" customFormat="1">
       <c r="A69" s="13">
         <v>6</v>
       </c>
@@ -5766,7 +5514,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D69" s="32" t="b">
         <v>1</v>
@@ -5774,16 +5522,16 @@
       <c r="E69" s="32">
         <v>44444</v>
       </c>
-      <c r="F69" s="57">
+      <c r="F69" s="40">
         <v>0.43055555555555558</v>
       </c>
-      <c r="G69" s="57">
+      <c r="G69" s="40">
         <v>0.63888888888888895</v>
       </c>
-      <c r="H69" s="57">
+      <c r="H69" s="40">
         <v>0.49305555555555558</v>
       </c>
-      <c r="I69" s="57">
+      <c r="I69" s="40">
         <v>0.57638888888888895</v>
       </c>
       <c r="J69" s="23">
@@ -5804,28 +5552,28 @@
       <c r="O69" s="23">
         <v>3</v>
       </c>
-      <c r="P69" s="41" t="str">
-        <f t="shared" si="10"/>
+      <c r="P69" s="44" t="str">
+        <f t="shared" si="5"/>
         <v>8/25～9/12_西南生涯学習センター/2021-09-05</v>
       </c>
       <c r="Q69" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>2021-09-05T10:20:00.000+9</v>
       </c>
       <c r="R69" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>2021-09-05T15:20:00.000+9</v>
       </c>
       <c r="S69" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>2021-09-05T11:50:00.000+9</v>
       </c>
-      <c r="T69" s="46" t="str">
-        <f t="shared" si="14"/>
+      <c r="T69" s="49" t="str">
+        <f t="shared" si="9"/>
         <v>2021-09-05T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="70" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:20" s="1" customFormat="1">
       <c r="A70" s="13">
         <v>6</v>
       </c>
@@ -5833,7 +5581,7 @@
         <v>69</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D70" s="32" t="b">
         <v>1</v>
@@ -5841,16 +5589,16 @@
       <c r="E70" s="32">
         <v>44451</v>
       </c>
-      <c r="F70" s="56">
+      <c r="F70" s="40">
         <v>0.43055555555555558</v>
       </c>
-      <c r="G70" s="56">
+      <c r="G70" s="40">
         <v>0.63888888888888895</v>
       </c>
-      <c r="H70" s="56">
+      <c r="H70" s="40">
         <v>0.49305555555555558</v>
       </c>
-      <c r="I70" s="56">
+      <c r="I70" s="40">
         <v>0.57638888888888895</v>
       </c>
       <c r="J70" s="23">
@@ -5871,28 +5619,28 @@
       <c r="O70" s="23">
         <v>3</v>
       </c>
-      <c r="P70" s="41" t="str">
-        <f t="shared" si="10"/>
+      <c r="P70" s="44" t="str">
+        <f t="shared" si="5"/>
         <v>8/25～9/12_西南生涯学習センター/2021-09-12</v>
       </c>
       <c r="Q70" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>2021-09-12T10:20:00.000+9</v>
       </c>
       <c r="R70" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>2021-09-12T15:20:00.000+9</v>
       </c>
       <c r="S70" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>2021-09-12T11:50:00.000+9</v>
       </c>
-      <c r="T70" s="46" t="str">
-        <f t="shared" si="14"/>
+      <c r="T70" s="49" t="str">
+        <f t="shared" si="9"/>
         <v>2021-09-12T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="71" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:20" s="1" customFormat="1">
       <c r="A71" s="13">
         <v>6</v>
       </c>
@@ -5900,7 +5648,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D71" s="33" t="b">
         <v>1</v>
@@ -5908,16 +5656,16 @@
       <c r="E71" s="33">
         <v>44458</v>
       </c>
-      <c r="F71" s="58">
+      <c r="F71" s="41">
         <v>0.43055555555555558</v>
       </c>
-      <c r="G71" s="58">
+      <c r="G71" s="41">
         <v>0.63888888888888895</v>
       </c>
-      <c r="H71" s="58">
+      <c r="H71" s="41">
         <v>0.49305555555555558</v>
       </c>
-      <c r="I71" s="58">
+      <c r="I71" s="41">
         <v>0.57638888888888895</v>
       </c>
       <c r="J71" s="24">
@@ -5938,28 +5686,28 @@
       <c r="O71" s="24">
         <v>0</v>
       </c>
-      <c r="P71" s="41" t="str">
-        <f t="shared" si="10"/>
+      <c r="P71" s="44" t="str">
+        <f t="shared" si="5"/>
         <v>8/25～9/12_西南生涯学習センター/2021-09-19</v>
       </c>
       <c r="Q71" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>2021-09-19T10:20:00.000+9</v>
       </c>
       <c r="R71" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>2021-09-19T15:20:00.000+9</v>
       </c>
       <c r="S71" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>2021-09-19T11:50:00.000+9</v>
       </c>
-      <c r="T71" s="46" t="str">
-        <f t="shared" si="14"/>
+      <c r="T71" s="49" t="str">
+        <f t="shared" si="9"/>
         <v>2021-09-19T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="72" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:20" s="1" customFormat="1">
       <c r="A72" s="13">
         <v>6</v>
       </c>
@@ -5967,24 +5715,24 @@
         <v>71</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D72" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="E72" s="53">
+      <c r="E72" s="33">
         <v>44465</v>
       </c>
-      <c r="F72" s="54">
+      <c r="F72" s="41">
         <v>0.43055555555555558</v>
       </c>
-      <c r="G72" s="54">
+      <c r="G72" s="41">
         <v>0.63888888888888895</v>
       </c>
-      <c r="H72" s="54">
+      <c r="H72" s="41">
         <v>0.49305555555555558</v>
       </c>
-      <c r="I72" s="54">
+      <c r="I72" s="41">
         <v>0.57638888888888895</v>
       </c>
       <c r="J72" s="24">
@@ -6005,28 +5753,28 @@
       <c r="O72" s="24">
         <v>0</v>
       </c>
-      <c r="P72" s="41" t="str">
-        <f t="shared" si="10"/>
+      <c r="P72" s="44" t="str">
+        <f t="shared" si="5"/>
         <v>8/25～9/12_西南生涯学習センター/2021-09-26</v>
       </c>
       <c r="Q72" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>2021-09-26T10:20:00.000+9</v>
       </c>
       <c r="R72" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>2021-09-26T15:20:00.000+9</v>
       </c>
       <c r="S72" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>2021-09-26T11:50:00.000+9</v>
       </c>
-      <c r="T72" s="46" t="str">
-        <f t="shared" si="14"/>
+      <c r="T72" s="49" t="str">
+        <f t="shared" si="9"/>
         <v>2021-09-26T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="73" spans="1:20" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20" s="1" customFormat="1" ht="14.25">
       <c r="A73" s="14">
         <v>6</v>
       </c>
@@ -6034,7 +5782,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D73" s="34" t="b">
         <v>1</v>
@@ -6042,16 +5790,16 @@
       <c r="E73" s="34">
         <v>44472</v>
       </c>
-      <c r="F73" s="59">
+      <c r="F73" s="42">
         <v>0.43055555555555558</v>
       </c>
-      <c r="G73" s="59">
+      <c r="G73" s="42">
         <v>0.63888888888888895</v>
       </c>
-      <c r="H73" s="59">
+      <c r="H73" s="42">
         <v>0.49305555555555558</v>
       </c>
-      <c r="I73" s="59">
+      <c r="I73" s="42">
         <v>0.57638888888888895</v>
       </c>
       <c r="J73" s="25">
@@ -6072,43 +5820,43 @@
       <c r="O73" s="25">
         <v>0</v>
       </c>
-      <c r="P73" s="42" t="str">
-        <f t="shared" si="10"/>
+      <c r="P73" s="45" t="str">
+        <f t="shared" si="5"/>
         <v>8/25～9/12_西南生涯学習センター/2021-10-03</v>
       </c>
-      <c r="Q73" s="44" t="str">
-        <f t="shared" si="11"/>
+      <c r="Q73" s="47" t="str">
+        <f t="shared" si="6"/>
         <v>2021-10-03T10:20:00.000+9</v>
       </c>
-      <c r="R73" s="44" t="str">
-        <f t="shared" si="12"/>
+      <c r="R73" s="47" t="str">
+        <f t="shared" si="7"/>
         <v>2021-10-03T15:20:00.000+9</v>
       </c>
-      <c r="S73" s="44" t="str">
-        <f t="shared" si="13"/>
+      <c r="S73" s="47" t="str">
+        <f t="shared" si="8"/>
         <v>2021-10-03T11:50:00.000+9</v>
       </c>
-      <c r="T73" s="47" t="str">
-        <f t="shared" si="14"/>
+      <c r="T73" s="50" t="str">
+        <f t="shared" si="9"/>
         <v>2021-10-03T13:50:00.000+9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42" bestFit="1" customWidth="1"/>
@@ -6121,36 +5869,36 @@
     <col min="16" max="19" width="26.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="27">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="J1" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>27</v>
@@ -6162,36 +5910,36 @@
         <v>29</v>
       </c>
       <c r="N1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="30">
-        <v>44375</v>
+        <v>44426</v>
       </c>
       <c r="E2" s="36">
         <v>0.55555555555555558</v>
@@ -6223,28 +5971,28 @@
       <c r="N2" s="19">
         <v>3</v>
       </c>
-      <c r="O2" s="41" t="str">
-        <f t="shared" ref="O2:O22" si="0">B2&amp;"/"&amp;TEXT(D2,"yyyy-mm-dd")</f>
-        <v>7/14～8/01_総合保健福祉センター(60歳)/2021-06-28</v>
+      <c r="O2" s="44" t="str">
+        <f>B2&amp;"/"&amp;TEXT(D2,"yyyy-mm-dd")</f>
+        <v>8/25～9/12_総合保健福祉センター/2021-08-18</v>
       </c>
       <c r="P2" s="9" t="str">
-        <f t="shared" ref="P2:P22" si="1">TEXT(D2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(E2,"hh:MM")&amp;":00.000+9"</f>
-        <v>2021-06-28T13:20:00.000+9</v>
+        <f>TEXT(D2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(E2,"hh:MM")&amp;":00.000+9"</f>
+        <v>2021-08-18T13:20:00.000+9</v>
       </c>
       <c r="Q2" s="9" t="str">
-        <f t="shared" ref="Q2:Q22" si="2">TEXT(D2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F2,"hh:MM")&amp;":00.000+9"</f>
-        <v>2021-06-28T13:30:00.000+9</v>
+        <f>TEXT(D2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F2,"hh:MM")&amp;":00.000+9"</f>
+        <v>2021-08-18T13:30:00.000+9</v>
       </c>
       <c r="R2" s="9" t="str">
-        <f t="shared" ref="R2:R22" si="3">TEXT(D2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(G2,"hh:MM")&amp;":00.000+9"</f>
-        <v>2021-06-28T13:20:00.000+9</v>
+        <f>TEXT(D2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(G2,"hh:MM")&amp;":00.000+9"</f>
+        <v>2021-08-18T13:20:00.000+9</v>
       </c>
       <c r="S2" s="9" t="str">
-        <f t="shared" ref="S2:S22" si="4">TEXT(D2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(H2,"hh:MM")&amp;":00.000+9"</f>
-        <v>2021-06-28T13:30:00.000+9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <f>TEXT(D2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(H2,"hh:MM")&amp;":00.000+9"</f>
+        <v>2021-08-18T13:30:00.000+9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6255,7 +6003,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="30">
-        <v>44382</v>
+        <v>44426</v>
       </c>
       <c r="E3" s="36">
         <v>0.55555555555555558</v>
@@ -6287,39 +6035,39 @@
       <c r="N3" s="19">
         <v>3</v>
       </c>
-      <c r="O3" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>7/14～8/01_総合保健福祉センター(60歳)/2021-07-05</v>
+      <c r="O3" s="44" t="str">
+        <f>B3&amp;"/"&amp;TEXT(D3,"yyyy-mm-dd")</f>
+        <v>8/25～9/12_東生涯学習センター/2021-08-18</v>
       </c>
       <c r="P3" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>2021-07-05T13:20:00.000+9</v>
+        <f>TEXT(D3,"yyyy-mm-dd")&amp;"T"&amp;TEXT(E3,"hh:MM")&amp;":00.000+9"</f>
+        <v>2021-08-18T13:20:00.000+9</v>
       </c>
       <c r="Q3" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>2021-07-05T13:30:00.000+9</v>
+        <f>TEXT(D3,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F3,"hh:MM")&amp;":00.000+9"</f>
+        <v>2021-08-18T13:30:00.000+9</v>
       </c>
       <c r="R3" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>2021-07-05T13:20:00.000+9</v>
+        <f>TEXT(D3,"yyyy-mm-dd")&amp;"T"&amp;TEXT(G3,"hh:MM")&amp;":00.000+9"</f>
+        <v>2021-08-18T13:20:00.000+9</v>
       </c>
       <c r="S3" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>2021-07-05T13:30:00.000+9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <f>TEXT(D3,"yyyy-mm-dd")&amp;"T"&amp;TEXT(H3,"hh:MM")&amp;":00.000+9"</f>
+        <v>2021-08-18T13:30:00.000+9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C4" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D4" s="30">
-        <v>44375</v>
+        <v>44426</v>
       </c>
       <c r="E4" s="36">
         <v>0.55555555555555558</v>
@@ -6351,1182 +6099,30 @@
       <c r="N4" s="19">
         <v>3</v>
       </c>
-      <c r="O4" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>7/14～8/01_東生涯学習センター(60歳)/2021-06-28</v>
+      <c r="O4" s="44" t="str">
+        <f>B4&amp;"/"&amp;TEXT(D4,"yyyy-mm-dd")</f>
+        <v>8/25～9/12_西南生涯学習センター/2021-08-18</v>
       </c>
       <c r="P4" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>2021-06-28T13:20:00.000+9</v>
+        <f>TEXT(D4,"yyyy-mm-dd")&amp;"T"&amp;TEXT(E4,"hh:MM")&amp;":00.000+9"</f>
+        <v>2021-08-18T13:20:00.000+9</v>
       </c>
       <c r="Q4" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>2021-06-28T13:30:00.000+9</v>
+        <f>TEXT(D4,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F4,"hh:MM")&amp;":00.000+9"</f>
+        <v>2021-08-18T13:30:00.000+9</v>
       </c>
       <c r="R4" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>2021-06-28T13:20:00.000+9</v>
+        <f>TEXT(D4,"yyyy-mm-dd")&amp;"T"&amp;TEXT(G4,"hh:MM")&amp;":00.000+9"</f>
+        <v>2021-08-18T13:20:00.000+9</v>
       </c>
       <c r="S4" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>2021-06-28T13:30:00.000+9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="30">
-        <v>44382</v>
-      </c>
-      <c r="E5" s="36">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F5" s="36">
-        <v>0.5625</v>
-      </c>
-      <c r="G5" s="36">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="H5" s="36">
-        <v>0.5625</v>
-      </c>
-      <c r="I5" s="19">
-        <v>10</v>
-      </c>
-      <c r="J5" s="19">
-        <v>0</v>
-      </c>
-      <c r="K5" s="19">
-        <v>0</v>
-      </c>
-      <c r="L5" s="19">
-        <v>120</v>
-      </c>
-      <c r="M5" s="19">
-        <v>3</v>
-      </c>
-      <c r="N5" s="19">
-        <v>3</v>
-      </c>
-      <c r="O5" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>7/14～8/01_東生涯学習センター(60歳)/2021-07-05</v>
-      </c>
-      <c r="P5" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>2021-07-05T13:20:00.000+9</v>
-      </c>
-      <c r="Q5" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>2021-07-05T13:30:00.000+9</v>
-      </c>
-      <c r="R5" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>2021-07-05T13:20:00.000+9</v>
-      </c>
-      <c r="S5" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>2021-07-05T13:30:00.000+9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="30">
-        <v>44375</v>
-      </c>
-      <c r="E6" s="36">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F6" s="36">
-        <v>0.5625</v>
-      </c>
-      <c r="G6" s="36">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="H6" s="36">
-        <v>0.5625</v>
-      </c>
-      <c r="I6" s="19">
-        <v>10</v>
-      </c>
-      <c r="J6" s="19">
-        <v>0</v>
-      </c>
-      <c r="K6" s="19">
-        <v>0</v>
-      </c>
-      <c r="L6" s="19">
-        <v>120</v>
-      </c>
-      <c r="M6" s="19">
-        <v>3</v>
-      </c>
-      <c r="N6" s="19">
-        <v>3</v>
-      </c>
-      <c r="O6" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>7/14～8/01_西南生涯学習センター(60歳)/2021-06-28</v>
-      </c>
-      <c r="P6" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>2021-06-28T13:20:00.000+9</v>
-      </c>
-      <c r="Q6" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>2021-06-28T13:30:00.000+9</v>
-      </c>
-      <c r="R6" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>2021-06-28T13:20:00.000+9</v>
-      </c>
-      <c r="S6" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>2021-06-28T13:30:00.000+9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="30">
-        <v>44382</v>
-      </c>
-      <c r="E7" s="36">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F7" s="36">
-        <v>0.5625</v>
-      </c>
-      <c r="G7" s="36">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="H7" s="36">
-        <v>0.5625</v>
-      </c>
-      <c r="I7" s="19">
-        <v>10</v>
-      </c>
-      <c r="J7" s="19">
-        <v>0</v>
-      </c>
-      <c r="K7" s="19">
-        <v>0</v>
-      </c>
-      <c r="L7" s="19">
-        <v>120</v>
-      </c>
-      <c r="M7" s="19">
-        <v>3</v>
-      </c>
-      <c r="N7" s="19">
-        <v>3</v>
-      </c>
-      <c r="O7" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>7/14～8/01_西南生涯学習センター(60歳)/2021-07-05</v>
-      </c>
-      <c r="P7" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>2021-07-05T13:20:00.000+9</v>
-      </c>
-      <c r="Q7" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>2021-07-05T13:30:00.000+9</v>
-      </c>
-      <c r="R7" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>2021-07-05T13:20:00.000+9</v>
-      </c>
-      <c r="S7" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>2021-07-05T13:30:00.000+9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" s="30">
-        <v>44375</v>
-      </c>
-      <c r="E8" s="36">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F8" s="36">
-        <v>0.5625</v>
-      </c>
-      <c r="G8" s="36">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="H8" s="36">
-        <v>0.5625</v>
-      </c>
-      <c r="I8" s="19">
-        <v>10</v>
-      </c>
-      <c r="J8" s="19">
-        <v>0</v>
-      </c>
-      <c r="K8" s="19">
-        <v>0</v>
-      </c>
-      <c r="L8" s="19">
-        <v>120</v>
-      </c>
-      <c r="M8" s="19">
-        <v>3</v>
-      </c>
-      <c r="N8" s="19">
-        <v>3</v>
-      </c>
-      <c r="O8" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>8/04～8/22_総合保健福祉センター(60歳)/2021-06-28</v>
-      </c>
-      <c r="P8" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>2021-06-28T13:20:00.000+9</v>
-      </c>
-      <c r="Q8" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>2021-06-28T13:30:00.000+9</v>
-      </c>
-      <c r="R8" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>2021-06-28T13:20:00.000+9</v>
-      </c>
-      <c r="S8" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>2021-06-28T13:30:00.000+9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" s="30">
-        <v>44382</v>
-      </c>
-      <c r="E9" s="36">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F9" s="36">
-        <v>0.5625</v>
-      </c>
-      <c r="G9" s="36">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="H9" s="36">
-        <v>0.5625</v>
-      </c>
-      <c r="I9" s="19">
-        <v>10</v>
-      </c>
-      <c r="J9" s="19">
-        <v>0</v>
-      </c>
-      <c r="K9" s="19">
-        <v>0</v>
-      </c>
-      <c r="L9" s="19">
-        <v>120</v>
-      </c>
-      <c r="M9" s="19">
-        <v>3</v>
-      </c>
-      <c r="N9" s="19">
-        <v>3</v>
-      </c>
-      <c r="O9" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>8/04～8/22_総合保健福祉センター(60歳)/2021-07-05</v>
-      </c>
-      <c r="P9" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>2021-07-05T13:20:00.000+9</v>
-      </c>
-      <c r="Q9" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>2021-07-05T13:30:00.000+9</v>
-      </c>
-      <c r="R9" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>2021-07-05T13:20:00.000+9</v>
-      </c>
-      <c r="S9" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>2021-07-05T13:30:00.000+9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" s="30">
-        <v>44389</v>
-      </c>
-      <c r="E10" s="36">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F10" s="36">
-        <v>0.5625</v>
-      </c>
-      <c r="G10" s="36">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="H10" s="36">
-        <v>0.5625</v>
-      </c>
-      <c r="I10" s="19">
-        <v>10</v>
-      </c>
-      <c r="J10" s="19">
-        <v>0</v>
-      </c>
-      <c r="K10" s="19">
-        <v>0</v>
-      </c>
-      <c r="L10" s="19">
-        <v>120</v>
-      </c>
-      <c r="M10" s="19">
-        <v>3</v>
-      </c>
-      <c r="N10" s="19">
-        <v>3</v>
-      </c>
-      <c r="O10" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>8/04～8/22_総合保健福祉センター(60歳)/2021-07-12</v>
-      </c>
-      <c r="P10" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>2021-07-12T13:20:00.000+9</v>
-      </c>
-      <c r="Q10" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>2021-07-12T13:30:00.000+9</v>
-      </c>
-      <c r="R10" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>2021-07-12T13:20:00.000+9</v>
-      </c>
-      <c r="S10" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>2021-07-12T13:30:00.000+9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" s="30">
-        <v>44396</v>
-      </c>
-      <c r="E11" s="36">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F11" s="36">
-        <v>0.5625</v>
-      </c>
-      <c r="G11" s="36">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="H11" s="36">
-        <v>0.5625</v>
-      </c>
-      <c r="I11" s="19">
-        <v>10</v>
-      </c>
-      <c r="J11" s="19">
-        <v>0</v>
-      </c>
-      <c r="K11" s="19">
-        <v>0</v>
-      </c>
-      <c r="L11" s="19">
-        <v>120</v>
-      </c>
-      <c r="M11" s="19">
-        <v>3</v>
-      </c>
-      <c r="N11" s="19">
-        <v>3</v>
-      </c>
-      <c r="O11" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>8/04～8/22_総合保健福祉センター(60歳)/2021-07-19</v>
-      </c>
-      <c r="P11" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>2021-07-19T13:20:00.000+9</v>
-      </c>
-      <c r="Q11" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>2021-07-19T13:30:00.000+9</v>
-      </c>
-      <c r="R11" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>2021-07-19T13:20:00.000+9</v>
-      </c>
-      <c r="S11" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>2021-07-19T13:30:00.000+9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" s="30">
-        <v>44403</v>
-      </c>
-      <c r="E12" s="36">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F12" s="36">
-        <v>0.5625</v>
-      </c>
-      <c r="G12" s="36">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="H12" s="36">
-        <v>0.5625</v>
-      </c>
-      <c r="I12" s="19">
-        <v>10</v>
-      </c>
-      <c r="J12" s="19">
-        <v>0</v>
-      </c>
-      <c r="K12" s="19">
-        <v>0</v>
-      </c>
-      <c r="L12" s="19">
-        <v>120</v>
-      </c>
-      <c r="M12" s="19">
-        <v>3</v>
-      </c>
-      <c r="N12" s="19">
-        <v>3</v>
-      </c>
-      <c r="O12" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>8/04～8/22_総合保健福祉センター(60歳)/2021-07-26</v>
-      </c>
-      <c r="P12" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>2021-07-26T13:20:00.000+9</v>
-      </c>
-      <c r="Q12" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>2021-07-26T13:30:00.000+9</v>
-      </c>
-      <c r="R12" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>2021-07-26T13:20:00.000+9</v>
-      </c>
-      <c r="S12" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>2021-07-26T13:30:00.000+9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" s="30">
-        <v>44375</v>
-      </c>
-      <c r="E13" s="36">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F13" s="36">
-        <v>0.5625</v>
-      </c>
-      <c r="G13" s="36">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="H13" s="36">
-        <v>0.5625</v>
-      </c>
-      <c r="I13" s="19">
-        <v>10</v>
-      </c>
-      <c r="J13" s="19">
-        <v>0</v>
-      </c>
-      <c r="K13" s="19">
-        <v>0</v>
-      </c>
-      <c r="L13" s="19">
-        <v>120</v>
-      </c>
-      <c r="M13" s="19">
-        <v>3</v>
-      </c>
-      <c r="N13" s="19">
-        <v>3</v>
-      </c>
-      <c r="O13" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>8/04～8/22_東生涯学習センター(60歳)/2021-06-28</v>
-      </c>
-      <c r="P13" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>2021-06-28T13:20:00.000+9</v>
-      </c>
-      <c r="Q13" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>2021-06-28T13:30:00.000+9</v>
-      </c>
-      <c r="R13" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>2021-06-28T13:20:00.000+9</v>
-      </c>
-      <c r="S13" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>2021-06-28T13:30:00.000+9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" s="30">
-        <v>44382</v>
-      </c>
-      <c r="E14" s="36">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F14" s="36">
-        <v>0.5625</v>
-      </c>
-      <c r="G14" s="36">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="H14" s="36">
-        <v>0.5625</v>
-      </c>
-      <c r="I14" s="19">
-        <v>10</v>
-      </c>
-      <c r="J14" s="19">
-        <v>0</v>
-      </c>
-      <c r="K14" s="19">
-        <v>0</v>
-      </c>
-      <c r="L14" s="19">
-        <v>120</v>
-      </c>
-      <c r="M14" s="19">
-        <v>3</v>
-      </c>
-      <c r="N14" s="19">
-        <v>3</v>
-      </c>
-      <c r="O14" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>8/04～8/22_東生涯学習センター(60歳)/2021-07-05</v>
-      </c>
-      <c r="P14" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>2021-07-05T13:20:00.000+9</v>
-      </c>
-      <c r="Q14" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>2021-07-05T13:30:00.000+9</v>
-      </c>
-      <c r="R14" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>2021-07-05T13:20:00.000+9</v>
-      </c>
-      <c r="S14" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>2021-07-05T13:30:00.000+9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" s="30">
-        <v>44389</v>
-      </c>
-      <c r="E15" s="36">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F15" s="36">
-        <v>0.5625</v>
-      </c>
-      <c r="G15" s="36">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="H15" s="36">
-        <v>0.5625</v>
-      </c>
-      <c r="I15" s="19">
-        <v>10</v>
-      </c>
-      <c r="J15" s="19">
-        <v>0</v>
-      </c>
-      <c r="K15" s="19">
-        <v>0</v>
-      </c>
-      <c r="L15" s="19">
-        <v>120</v>
-      </c>
-      <c r="M15" s="19">
-        <v>3</v>
-      </c>
-      <c r="N15" s="19">
-        <v>3</v>
-      </c>
-      <c r="O15" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>8/04～8/22_東生涯学習センター(60歳)/2021-07-12</v>
-      </c>
-      <c r="P15" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>2021-07-12T13:20:00.000+9</v>
-      </c>
-      <c r="Q15" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>2021-07-12T13:30:00.000+9</v>
-      </c>
-      <c r="R15" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>2021-07-12T13:20:00.000+9</v>
-      </c>
-      <c r="S15" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>2021-07-12T13:30:00.000+9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" s="30">
-        <v>44396</v>
-      </c>
-      <c r="E16" s="36">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F16" s="36">
-        <v>0.5625</v>
-      </c>
-      <c r="G16" s="36">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="H16" s="36">
-        <v>0.5625</v>
-      </c>
-      <c r="I16" s="19">
-        <v>10</v>
-      </c>
-      <c r="J16" s="19">
-        <v>0</v>
-      </c>
-      <c r="K16" s="19">
-        <v>0</v>
-      </c>
-      <c r="L16" s="19">
-        <v>120</v>
-      </c>
-      <c r="M16" s="19">
-        <v>3</v>
-      </c>
-      <c r="N16" s="19">
-        <v>3</v>
-      </c>
-      <c r="O16" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>8/04～8/22_東生涯学習センター(60歳)/2021-07-19</v>
-      </c>
-      <c r="P16" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>2021-07-19T13:20:00.000+9</v>
-      </c>
-      <c r="Q16" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>2021-07-19T13:30:00.000+9</v>
-      </c>
-      <c r="R16" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>2021-07-19T13:20:00.000+9</v>
-      </c>
-      <c r="S16" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>2021-07-19T13:30:00.000+9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D17" s="30">
-        <v>44403</v>
-      </c>
-      <c r="E17" s="36">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F17" s="36">
-        <v>0.5625</v>
-      </c>
-      <c r="G17" s="36">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="H17" s="36">
-        <v>0.5625</v>
-      </c>
-      <c r="I17" s="19">
-        <v>10</v>
-      </c>
-      <c r="J17" s="19">
-        <v>0</v>
-      </c>
-      <c r="K17" s="19">
-        <v>0</v>
-      </c>
-      <c r="L17" s="19">
-        <v>120</v>
-      </c>
-      <c r="M17" s="19">
-        <v>3</v>
-      </c>
-      <c r="N17" s="19">
-        <v>3</v>
-      </c>
-      <c r="O17" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>8/04～8/22_東生涯学習センター(60歳)/2021-07-26</v>
-      </c>
-      <c r="P17" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>2021-07-26T13:20:00.000+9</v>
-      </c>
-      <c r="Q17" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>2021-07-26T13:30:00.000+9</v>
-      </c>
-      <c r="R17" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>2021-07-26T13:20:00.000+9</v>
-      </c>
-      <c r="S17" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>2021-07-26T13:30:00.000+9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D18" s="30">
-        <v>44375</v>
-      </c>
-      <c r="E18" s="36">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F18" s="36">
-        <v>0.5625</v>
-      </c>
-      <c r="G18" s="36">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="H18" s="36">
-        <v>0.5625</v>
-      </c>
-      <c r="I18" s="19">
-        <v>10</v>
-      </c>
-      <c r="J18" s="19">
-        <v>0</v>
-      </c>
-      <c r="K18" s="19">
-        <v>0</v>
-      </c>
-      <c r="L18" s="19">
-        <v>120</v>
-      </c>
-      <c r="M18" s="19">
-        <v>3</v>
-      </c>
-      <c r="N18" s="19">
-        <v>3</v>
-      </c>
-      <c r="O18" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>8/04～8/22_西南生涯学習センター(60歳)/2021-06-28</v>
-      </c>
-      <c r="P18" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>2021-06-28T13:20:00.000+9</v>
-      </c>
-      <c r="Q18" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>2021-06-28T13:30:00.000+9</v>
-      </c>
-      <c r="R18" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>2021-06-28T13:20:00.000+9</v>
-      </c>
-      <c r="S18" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>2021-06-28T13:30:00.000+9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D19" s="30">
-        <v>44382</v>
-      </c>
-      <c r="E19" s="36">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F19" s="36">
-        <v>0.5625</v>
-      </c>
-      <c r="G19" s="36">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="H19" s="36">
-        <v>0.5625</v>
-      </c>
-      <c r="I19" s="19">
-        <v>10</v>
-      </c>
-      <c r="J19" s="19">
-        <v>0</v>
-      </c>
-      <c r="K19" s="19">
-        <v>0</v>
-      </c>
-      <c r="L19" s="19">
-        <v>120</v>
-      </c>
-      <c r="M19" s="19">
-        <v>3</v>
-      </c>
-      <c r="N19" s="19">
-        <v>3</v>
-      </c>
-      <c r="O19" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>8/04～8/22_西南生涯学習センター(60歳)/2021-07-05</v>
-      </c>
-      <c r="P19" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>2021-07-05T13:20:00.000+9</v>
-      </c>
-      <c r="Q19" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>2021-07-05T13:30:00.000+9</v>
-      </c>
-      <c r="R19" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>2021-07-05T13:20:00.000+9</v>
-      </c>
-      <c r="S19" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>2021-07-05T13:30:00.000+9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D20" s="30">
-        <v>44389</v>
-      </c>
-      <c r="E20" s="36">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F20" s="36">
-        <v>0.5625</v>
-      </c>
-      <c r="G20" s="36">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="H20" s="36">
-        <v>0.5625</v>
-      </c>
-      <c r="I20" s="19">
-        <v>10</v>
-      </c>
-      <c r="J20" s="19">
-        <v>0</v>
-      </c>
-      <c r="K20" s="19">
-        <v>0</v>
-      </c>
-      <c r="L20" s="19">
-        <v>120</v>
-      </c>
-      <c r="M20" s="19">
-        <v>3</v>
-      </c>
-      <c r="N20" s="19">
-        <v>3</v>
-      </c>
-      <c r="O20" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>8/04～8/22_西南生涯学習センター(60歳)/2021-07-12</v>
-      </c>
-      <c r="P20" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>2021-07-12T13:20:00.000+9</v>
-      </c>
-      <c r="Q20" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>2021-07-12T13:30:00.000+9</v>
-      </c>
-      <c r="R20" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>2021-07-12T13:20:00.000+9</v>
-      </c>
-      <c r="S20" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>2021-07-12T13:30:00.000+9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" s="30">
-        <v>44396</v>
-      </c>
-      <c r="E21" s="36">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F21" s="36">
-        <v>0.5625</v>
-      </c>
-      <c r="G21" s="36">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="H21" s="36">
-        <v>0.5625</v>
-      </c>
-      <c r="I21" s="19">
-        <v>10</v>
-      </c>
-      <c r="J21" s="19">
-        <v>0</v>
-      </c>
-      <c r="K21" s="19">
-        <v>0</v>
-      </c>
-      <c r="L21" s="19">
-        <v>120</v>
-      </c>
-      <c r="M21" s="19">
-        <v>3</v>
-      </c>
-      <c r="N21" s="19">
-        <v>3</v>
-      </c>
-      <c r="O21" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>8/04～8/22_西南生涯学習センター(60歳)/2021-07-19</v>
-      </c>
-      <c r="P21" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>2021-07-19T13:20:00.000+9</v>
-      </c>
-      <c r="Q21" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>2021-07-19T13:30:00.000+9</v>
-      </c>
-      <c r="R21" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>2021-07-19T13:20:00.000+9</v>
-      </c>
-      <c r="S21" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>2021-07-19T13:30:00.000+9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D22" s="30">
-        <v>44403</v>
-      </c>
-      <c r="E22" s="36">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F22" s="36">
-        <v>0.5625</v>
-      </c>
-      <c r="G22" s="36">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="H22" s="36">
-        <v>0.5625</v>
-      </c>
-      <c r="I22" s="19">
-        <v>10</v>
-      </c>
-      <c r="J22" s="19">
-        <v>0</v>
-      </c>
-      <c r="K22" s="19">
-        <v>0</v>
-      </c>
-      <c r="L22" s="19">
-        <v>120</v>
-      </c>
-      <c r="M22" s="19">
-        <v>3</v>
-      </c>
-      <c r="N22" s="19">
-        <v>3</v>
-      </c>
-      <c r="O22" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>8/04～8/22_西南生涯学習センター(60歳)/2021-07-26</v>
-      </c>
-      <c r="P22" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>2021-07-26T13:20:00.000+9</v>
-      </c>
-      <c r="Q22" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>2021-07-26T13:30:00.000+9</v>
-      </c>
-      <c r="R22" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>2021-07-26T13:20:00.000+9</v>
-      </c>
-      <c r="S22" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>2021-07-26T13:30:00.000+9</v>
+        <f>TEXT(D4,"yyyy-mm-dd")&amp;"T"&amp;TEXT(H4,"hh:MM")&amp;":00.000+9"</f>
+        <v>2021-08-18T13:30:00.000+9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" r:id="rId1"/>
 </worksheet>
 </file>